--- a/output/damage/BRN_osm_tc_EC-Earth3P-HR_damage_1.xlsx
+++ b/output/damage/BRN_osm_tc_EC-Earth3P-HR_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>49389.31281858461</v>
+        <v>709419.8000756418</v>
       </c>
       <c r="F2" t="n">
-        <v>37041.98461393846</v>
+        <v>532064.8500567315</v>
       </c>
       <c r="G2" t="n">
-        <v>61736.64102323077</v>
+        <v>886774.7500945524</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30511.61991903672</v>
+        <v>438263.7876022854</v>
       </c>
       <c r="F3" t="n">
-        <v>22883.71493927754</v>
+        <v>328697.8407017141</v>
       </c>
       <c r="G3" t="n">
-        <v>38139.5248987959</v>
+        <v>547829.7345028569</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16463.10427286154</v>
+        <v>236473.2666918807</v>
       </c>
       <c r="F4" t="n">
-        <v>12347.32820464615</v>
+        <v>177354.9500189105</v>
       </c>
       <c r="G4" t="n">
-        <v>20578.88034107692</v>
+        <v>295591.5833648508</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10371.75569190277</v>
+        <v>148978.1580158848</v>
       </c>
       <c r="F5" t="n">
-        <v>7778.816768927077</v>
+        <v>111733.6185119136</v>
       </c>
       <c r="G5" t="n">
-        <v>12964.69461487846</v>
+        <v>186222.697519856</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8725.445264616616</v>
+        <v>125330.8313466968</v>
       </c>
       <c r="F6" t="n">
-        <v>6544.083948462461</v>
+        <v>93998.12351002257</v>
       </c>
       <c r="G6" t="n">
-        <v>10906.80658077077</v>
+        <v>156663.5391833709</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5871.840523987282</v>
+        <v>84342.13178677077</v>
       </c>
       <c r="F7" t="n">
-        <v>4403.880392990462</v>
+        <v>63256.59884007807</v>
       </c>
       <c r="G7" t="n">
-        <v>7339.800654984102</v>
+        <v>105427.6647334634</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>49396.7337886895</v>
+        <v>732198.8899856475</v>
       </c>
       <c r="F8" t="n">
-        <v>37047.55034151713</v>
+        <v>549149.1674892356</v>
       </c>
       <c r="G8" t="n">
-        <v>61745.91723586187</v>
+        <v>915248.6124820594</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30516.20442945707</v>
+        <v>452336.2031466889</v>
       </c>
       <c r="F9" t="n">
-        <v>22887.1533220928</v>
+        <v>339252.1523600167</v>
       </c>
       <c r="G9" t="n">
-        <v>38145.25553682134</v>
+        <v>565420.2539333611</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16465.57792956317</v>
+        <v>244066.2966618825</v>
       </c>
       <c r="F10" t="n">
-        <v>12349.18344717237</v>
+        <v>183049.7224964119</v>
       </c>
       <c r="G10" t="n">
-        <v>20581.97241195396</v>
+        <v>305082.8708273532</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10373.3140956248</v>
+        <v>153761.766896986</v>
       </c>
       <c r="F11" t="n">
-        <v>7779.985571718596</v>
+        <v>115321.3251727395</v>
       </c>
       <c r="G11" t="n">
-        <v>12966.64261953099</v>
+        <v>192202.2086212325</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8726.756302668478</v>
+        <v>129355.1372307977</v>
       </c>
       <c r="F12" t="n">
-        <v>6545.067227001358</v>
+        <v>97016.35292309833</v>
       </c>
       <c r="G12" t="n">
-        <v>10908.4453783356</v>
+        <v>161693.9215384972</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5872.72279487753</v>
+        <v>87050.31247607143</v>
       </c>
       <c r="F13" t="n">
-        <v>4404.542096158148</v>
+        <v>65287.73435705357</v>
       </c>
       <c r="G13" t="n">
-        <v>7340.903493596911</v>
+        <v>108812.8905950893</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>49395.07981485825</v>
+        <v>607364.6357493871</v>
       </c>
       <c r="F14" t="n">
-        <v>37046.30986114369</v>
+        <v>455523.4768120403</v>
       </c>
       <c r="G14" t="n">
-        <v>61743.84976857282</v>
+        <v>759205.7946867339</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30515.1826411791</v>
+        <v>375216.3749740658</v>
       </c>
       <c r="F15" t="n">
-        <v>22886.38698088433</v>
+        <v>281412.2812305493</v>
       </c>
       <c r="G15" t="n">
-        <v>38143.97830147388</v>
+        <v>469020.4687175823</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16465.02660495275</v>
+        <v>202454.878583129</v>
       </c>
       <c r="F16" t="n">
-        <v>12348.76995371456</v>
+        <v>151841.1589373468</v>
       </c>
       <c r="G16" t="n">
-        <v>20581.28325619094</v>
+        <v>253068.5982289113</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10372.96676112023</v>
+        <v>127546.5735073713</v>
       </c>
       <c r="F17" t="n">
-        <v>7779.725070840176</v>
+        <v>95659.93013052848</v>
       </c>
       <c r="G17" t="n">
-        <v>12966.20845140029</v>
+        <v>159433.2168842141</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8726.464100624959</v>
+        <v>107301.0856490584</v>
       </c>
       <c r="F18" t="n">
-        <v>6544.848075468719</v>
+        <v>80475.8142367938</v>
       </c>
       <c r="G18" t="n">
-        <v>10908.0801257812</v>
+        <v>134126.357061323</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5872.526155766482</v>
+        <v>72208.90669464935</v>
       </c>
       <c r="F19" t="n">
-        <v>4404.394616824862</v>
+        <v>54156.68002098701</v>
       </c>
       <c r="G19" t="n">
-        <v>7340.657694708102</v>
+        <v>90261.13336831168</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>49396.52025061573</v>
+        <v>480365.461206812</v>
       </c>
       <c r="F20" t="n">
-        <v>37047.3901879618</v>
+        <v>360274.0959051091</v>
       </c>
       <c r="G20" t="n">
-        <v>61745.65031326967</v>
+        <v>600456.826508515</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30516.07251038039</v>
+        <v>296759.1071455417</v>
       </c>
       <c r="F21" t="n">
-        <v>22887.05438278529</v>
+        <v>222569.3303591562</v>
       </c>
       <c r="G21" t="n">
-        <v>38145.09063797548</v>
+        <v>370948.8839319272</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16465.50675020524</v>
+        <v>160121.8204022707</v>
       </c>
       <c r="F22" t="n">
-        <v>12349.13006265393</v>
+        <v>120091.365301703</v>
       </c>
       <c r="G22" t="n">
-        <v>20581.88343775655</v>
+        <v>200152.2755028384</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10373.2692526293</v>
+        <v>100876.7468534305</v>
       </c>
       <c r="F23" t="n">
-        <v>7779.951939471977</v>
+        <v>75657.56014007291</v>
       </c>
       <c r="G23" t="n">
-        <v>12966.58656578663</v>
+        <v>126095.9335667882</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8726.718577608779</v>
+        <v>84864.56481320347</v>
       </c>
       <c r="F24" t="n">
-        <v>6545.038933206584</v>
+        <v>63648.4236099026</v>
       </c>
       <c r="G24" t="n">
-        <v>10908.39822201097</v>
+        <v>106080.7060165043</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5872.697407573202</v>
+        <v>57110.11594347654</v>
       </c>
       <c r="F25" t="n">
-        <v>4404.523055679903</v>
+        <v>42832.5869576074</v>
       </c>
       <c r="G25" t="n">
-        <v>7340.871759466504</v>
+        <v>71387.64492934568</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49391.4832885759</v>
+        <v>442744.8061030855</v>
       </c>
       <c r="F26" t="n">
-        <v>37043.61246643192</v>
+        <v>332058.6045773142</v>
       </c>
       <c r="G26" t="n">
-        <v>61739.35411071987</v>
+        <v>553431.0076288569</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30512.96078716466</v>
+        <v>273517.9024370173</v>
       </c>
       <c r="F27" t="n">
-        <v>22884.7205903735</v>
+        <v>205138.426827763</v>
       </c>
       <c r="G27" t="n">
-        <v>38141.20098395584</v>
+        <v>341897.3780462717</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16463.82776285863</v>
+        <v>147581.6020343619</v>
       </c>
       <c r="F28" t="n">
-        <v>12347.87082214397</v>
+        <v>110686.2015257714</v>
       </c>
       <c r="G28" t="n">
-        <v>20579.78470357329</v>
+        <v>184477.0025429523</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10372.21149060094</v>
+        <v>92976.40928164798</v>
       </c>
       <c r="F29" t="n">
-        <v>7779.158617950704</v>
+        <v>69732.30696123598</v>
       </c>
       <c r="G29" t="n">
-        <v>12965.26436325117</v>
+        <v>116220.51160206</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8725.828714315076</v>
+        <v>78218.24907821178</v>
       </c>
       <c r="F30" t="n">
-        <v>6544.371535736307</v>
+        <v>58663.68680865884</v>
       </c>
       <c r="G30" t="n">
-        <v>10907.28589289384</v>
+        <v>97772.81134776471</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5872.098568752912</v>
+        <v>52637.43805892239</v>
       </c>
       <c r="F31" t="n">
-        <v>4404.073926564684</v>
+        <v>39478.0785441918</v>
       </c>
       <c r="G31" t="n">
-        <v>7340.12321094114</v>
+        <v>65796.79757365299</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46655.21834783145</v>
+        <v>631861.0391923181</v>
       </c>
       <c r="F32" t="n">
-        <v>34991.41376087359</v>
+        <v>473895.7793942387</v>
       </c>
       <c r="G32" t="n">
-        <v>58319.02293478932</v>
+        <v>789826.2989903977</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28822.55711266032</v>
+        <v>390349.7086565876</v>
       </c>
       <c r="F33" t="n">
-        <v>21616.91783449524</v>
+        <v>292762.2814924408</v>
       </c>
       <c r="G33" t="n">
-        <v>36028.1963908254</v>
+        <v>487937.1358207346</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15551.73944927715</v>
+        <v>210620.3463974394</v>
       </c>
       <c r="F34" t="n">
-        <v>11663.80458695786</v>
+        <v>157965.2597980795</v>
       </c>
       <c r="G34" t="n">
-        <v>19439.67431159644</v>
+        <v>263275.4329967992</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9797.595853044606</v>
+        <v>132690.8182303868</v>
       </c>
       <c r="F35" t="n">
-        <v>7348.196889783454</v>
+        <v>99518.11367279013</v>
       </c>
       <c r="G35" t="n">
-        <v>12246.99481630576</v>
+        <v>165863.5227879835</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8242.42190811689</v>
+        <v>111628.7835906429</v>
       </c>
       <c r="F36" t="n">
-        <v>6181.816431087668</v>
+        <v>83721.58769298218</v>
       </c>
       <c r="G36" t="n">
-        <v>10303.02738514611</v>
+        <v>139535.9794883036</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5546.787070242184</v>
+        <v>75121.25688175339</v>
       </c>
       <c r="F37" t="n">
-        <v>4160.090302681639</v>
+        <v>56340.94266131504</v>
       </c>
       <c r="G37" t="n">
-        <v>6933.483837802731</v>
+        <v>93901.57110219172</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43488.88748907444</v>
+        <v>143174.1128354773</v>
       </c>
       <c r="F38" t="n">
-        <v>32616.66561680584</v>
+        <v>107380.584626608</v>
       </c>
       <c r="G38" t="n">
-        <v>54361.10936134306</v>
+        <v>178967.6410443466</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26866.46827102821</v>
+        <v>88449.78526280596</v>
       </c>
       <c r="F39" t="n">
-        <v>20149.85120327116</v>
+        <v>66337.33894710446</v>
       </c>
       <c r="G39" t="n">
-        <v>33583.08533878527</v>
+        <v>110562.2315785074</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14496.29582969148</v>
+        <v>47724.70427849243</v>
       </c>
       <c r="F40" t="n">
-        <v>10872.22187226861</v>
+        <v>35793.52820886931</v>
       </c>
       <c r="G40" t="n">
-        <v>18120.36978711435</v>
+        <v>59655.88034811553</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>9132.666372705635</v>
+        <v>30066.56369545023</v>
       </c>
       <c r="F41" t="n">
-        <v>6849.499779529226</v>
+        <v>22549.92277158767</v>
       </c>
       <c r="G41" t="n">
-        <v>11415.83296588204</v>
+        <v>37583.20461931278</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7683.036789736487</v>
+        <v>25294.09326760098</v>
       </c>
       <c r="F42" t="n">
-        <v>5762.277592302365</v>
+        <v>18970.56995070074</v>
       </c>
       <c r="G42" t="n">
-        <v>9603.795987170606</v>
+        <v>31617.61658450123</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5170.345512589963</v>
+        <v>17021.8111926623</v>
       </c>
       <c r="F43" t="n">
-        <v>3877.759134442472</v>
+        <v>12766.35839449672</v>
       </c>
       <c r="G43" t="n">
-        <v>6462.931890737453</v>
+        <v>21277.26399082787</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>49389.31281858461</v>
+        <v>304377.2789272902</v>
       </c>
       <c r="F44" t="n">
-        <v>37041.98461393846</v>
+        <v>228282.9591954676</v>
       </c>
       <c r="G44" t="n">
-        <v>61736.64102323077</v>
+        <v>380471.5986591128</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30511.61991903672</v>
+        <v>188037.5189817482</v>
       </c>
       <c r="F45" t="n">
-        <v>22883.71493927754</v>
+        <v>141028.1392363111</v>
       </c>
       <c r="G45" t="n">
-        <v>38139.5248987959</v>
+        <v>235046.8987271852</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16463.10427286154</v>
+        <v>101459.0929757634</v>
       </c>
       <c r="F46" t="n">
-        <v>12347.32820464615</v>
+        <v>76094.31973182254</v>
       </c>
       <c r="G46" t="n">
-        <v>20578.88034107692</v>
+        <v>126823.8662197043</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10371.75569190277</v>
+        <v>63919.22857473095</v>
       </c>
       <c r="F47" t="n">
-        <v>7778.816768927077</v>
+        <v>47939.42143104821</v>
       </c>
       <c r="G47" t="n">
-        <v>12964.69461487846</v>
+        <v>79899.03571841367</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8725.445264616616</v>
+        <v>53773.31927715459</v>
       </c>
       <c r="F48" t="n">
-        <v>6544.083948462461</v>
+        <v>40329.98945786595</v>
       </c>
       <c r="G48" t="n">
-        <v>10906.80658077077</v>
+        <v>67216.64909644325</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5871.840523987282</v>
+        <v>36187.07649468895</v>
       </c>
       <c r="F49" t="n">
-        <v>4403.880392990462</v>
+        <v>27140.30737101671</v>
       </c>
       <c r="G49" t="n">
-        <v>7339.800654984102</v>
+        <v>45233.84561836118</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>49396.7337886895</v>
+        <v>234385.4703156747</v>
       </c>
       <c r="F50" t="n">
-        <v>37047.55034151713</v>
+        <v>175789.102736756</v>
       </c>
       <c r="G50" t="n">
-        <v>61745.91723586187</v>
+        <v>292981.8378945934</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30516.20442945707</v>
+        <v>144798.1349950168</v>
       </c>
       <c r="F51" t="n">
-        <v>22887.1533220928</v>
+        <v>108598.6012462626</v>
       </c>
       <c r="G51" t="n">
-        <v>38145.25553682134</v>
+        <v>180997.668743771</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16465.57792956317</v>
+        <v>78128.49010522492</v>
       </c>
       <c r="F52" t="n">
-        <v>12349.18344717237</v>
+        <v>58596.36757891867</v>
       </c>
       <c r="G52" t="n">
-        <v>20581.97241195396</v>
+        <v>97660.61263153113</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10373.3140956248</v>
+        <v>49220.94876629169</v>
       </c>
       <c r="F53" t="n">
-        <v>7779.985571718596</v>
+        <v>36915.71157471877</v>
       </c>
       <c r="G53" t="n">
-        <v>12966.64261953099</v>
+        <v>61526.18595786462</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8726.756302668478</v>
+        <v>41408.0997557692</v>
       </c>
       <c r="F54" t="n">
-        <v>6545.067227001358</v>
+        <v>31056.0748168269</v>
       </c>
       <c r="G54" t="n">
-        <v>10908.4453783356</v>
+        <v>51760.1246947115</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5872.72279487753</v>
+        <v>27865.82813753022</v>
       </c>
       <c r="F55" t="n">
-        <v>4404.542096158148</v>
+        <v>20899.37110314766</v>
       </c>
       <c r="G55" t="n">
-        <v>7340.903493596911</v>
+        <v>34832.28517191276</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49395.07981485825</v>
+        <v>158788.3184719437</v>
       </c>
       <c r="F56" t="n">
-        <v>37046.30986114369</v>
+        <v>119091.2388539578</v>
       </c>
       <c r="G56" t="n">
-        <v>61743.84976857282</v>
+        <v>198485.3980899296</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30515.1826411791</v>
+        <v>98095.89452266744</v>
       </c>
       <c r="F57" t="n">
-        <v>22886.38698088433</v>
+        <v>73571.92089200058</v>
       </c>
       <c r="G57" t="n">
-        <v>38143.97830147388</v>
+        <v>122619.8681533343</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16465.02660495275</v>
+        <v>52929.4394906479</v>
       </c>
       <c r="F58" t="n">
-        <v>12348.76995371456</v>
+        <v>39697.07961798592</v>
       </c>
       <c r="G58" t="n">
-        <v>20581.28325619094</v>
+        <v>66161.79936330988</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10372.96676112023</v>
+        <v>33345.54687910818</v>
       </c>
       <c r="F59" t="n">
-        <v>7779.725070840176</v>
+        <v>25009.16015933114</v>
       </c>
       <c r="G59" t="n">
-        <v>12966.20845140029</v>
+        <v>41681.93359888522</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8726.464100624959</v>
+        <v>28052.60293004339</v>
       </c>
       <c r="F60" t="n">
-        <v>6544.848075468719</v>
+        <v>21039.45219753254</v>
       </c>
       <c r="G60" t="n">
-        <v>10908.0801257812</v>
+        <v>35065.75366255423</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5872.526155766482</v>
+        <v>18878.16675166442</v>
       </c>
       <c r="F61" t="n">
-        <v>4404.394616824862</v>
+        <v>14158.62506374831</v>
       </c>
       <c r="G61" t="n">
-        <v>7340.657694708102</v>
+        <v>23597.70843958052</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49396.52025061573</v>
+        <v>108343.7638503948</v>
       </c>
       <c r="F62" t="n">
-        <v>37047.3901879618</v>
+        <v>81257.82288779609</v>
       </c>
       <c r="G62" t="n">
-        <v>61745.65031326967</v>
+        <v>135429.7048129935</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30516.07251038039</v>
+        <v>66932.36966757722</v>
       </c>
       <c r="F63" t="n">
-        <v>22887.05438278529</v>
+        <v>50199.27725068292</v>
       </c>
       <c r="G63" t="n">
-        <v>38145.09063797548</v>
+        <v>83665.46208447154</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16465.50675020524</v>
+        <v>36114.5879501316</v>
       </c>
       <c r="F64" t="n">
-        <v>12349.13006265393</v>
+        <v>27085.9409625987</v>
       </c>
       <c r="G64" t="n">
-        <v>20581.88343775655</v>
+        <v>45143.2349376645</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10373.2692526293</v>
+        <v>22752.19040858291</v>
       </c>
       <c r="F65" t="n">
-        <v>7779.951939471977</v>
+        <v>17064.14280643718</v>
       </c>
       <c r="G65" t="n">
-        <v>12966.58656578663</v>
+        <v>28440.23801072863</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8726.718577608779</v>
+        <v>19140.73161356974</v>
       </c>
       <c r="F66" t="n">
-        <v>6545.038933206584</v>
+        <v>14355.54871017731</v>
       </c>
       <c r="G66" t="n">
-        <v>10908.39822201097</v>
+        <v>23925.91451696218</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5872.697407573202</v>
+        <v>12880.8697022136</v>
       </c>
       <c r="F67" t="n">
-        <v>4404.523055679903</v>
+        <v>9660.652276660203</v>
       </c>
       <c r="G67" t="n">
-        <v>7340.871759466504</v>
+        <v>16101.087127767</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>49391.4832885759</v>
+        <v>87635.16962524856</v>
       </c>
       <c r="F68" t="n">
-        <v>37043.61246643192</v>
+        <v>65726.37721893642</v>
       </c>
       <c r="G68" t="n">
-        <v>61739.35411071987</v>
+        <v>109543.9620315607</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30512.96078716466</v>
+        <v>54139.06034626466</v>
       </c>
       <c r="F69" t="n">
-        <v>22884.7205903735</v>
+        <v>40604.29525969849</v>
       </c>
       <c r="G69" t="n">
-        <v>38141.20098395584</v>
+        <v>67673.82543283084</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16463.82776285863</v>
+        <v>29211.72320841618</v>
       </c>
       <c r="F70" t="n">
-        <v>12347.87082214397</v>
+        <v>21908.79240631214</v>
       </c>
       <c r="G70" t="n">
-        <v>20579.78470357329</v>
+        <v>36514.65401052023</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10372.21149060094</v>
+        <v>18403.3856213022</v>
       </c>
       <c r="F71" t="n">
-        <v>7779.158617950704</v>
+        <v>13802.53921597665</v>
       </c>
       <c r="G71" t="n">
-        <v>12965.26436325117</v>
+        <v>23004.23202662775</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>8725.828714315076</v>
+        <v>15482.21330046058</v>
       </c>
       <c r="F72" t="n">
-        <v>6544.371535736307</v>
+        <v>11611.65997534543</v>
       </c>
       <c r="G72" t="n">
-        <v>10907.28589289384</v>
+        <v>19352.76662557572</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5872.098568752912</v>
+        <v>10418.84794433511</v>
       </c>
       <c r="F73" t="n">
-        <v>4404.073926564684</v>
+        <v>7814.13595825133</v>
       </c>
       <c r="G73" t="n">
-        <v>7340.12321094114</v>
+        <v>13023.55993041888</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>46655.21834783145</v>
+        <v>257322.4585785999</v>
       </c>
       <c r="F74" t="n">
-        <v>34991.41376087359</v>
+        <v>192991.8439339499</v>
       </c>
       <c r="G74" t="n">
-        <v>58319.02293478932</v>
+        <v>321653.07322325</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28822.55711266032</v>
+        <v>158968.0966330018</v>
       </c>
       <c r="F75" t="n">
-        <v>21616.91783449524</v>
+        <v>119226.0724747513</v>
       </c>
       <c r="G75" t="n">
-        <v>36028.1963908254</v>
+        <v>198710.1207912522</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15551.73944927715</v>
+        <v>85774.15285953334</v>
       </c>
       <c r="F76" t="n">
-        <v>11663.80458695786</v>
+        <v>64330.61464464998</v>
       </c>
       <c r="G76" t="n">
-        <v>19439.67431159644</v>
+        <v>107217.6910744167</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9797.595853044606</v>
+        <v>54037.716301506</v>
       </c>
       <c r="F77" t="n">
-        <v>7348.196889783454</v>
+        <v>40528.2872261295</v>
       </c>
       <c r="G77" t="n">
-        <v>12246.99481630576</v>
+        <v>67547.14537688249</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8242.42190811689</v>
+        <v>45460.30101555266</v>
       </c>
       <c r="F78" t="n">
-        <v>6181.816431087668</v>
+        <v>34095.22576166449</v>
       </c>
       <c r="G78" t="n">
-        <v>10303.02738514611</v>
+        <v>56825.37626944082</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5546.787070242184</v>
+        <v>30592.78118656688</v>
       </c>
       <c r="F79" t="n">
-        <v>4160.090302681639</v>
+        <v>22944.58588992517</v>
       </c>
       <c r="G79" t="n">
-        <v>6933.483837802731</v>
+        <v>38240.9764832086</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43488.88748907444</v>
+        <v>111456.163277253</v>
       </c>
       <c r="F80" t="n">
-        <v>32616.66561680584</v>
+        <v>83592.12245793978</v>
       </c>
       <c r="G80" t="n">
-        <v>54361.10936134306</v>
+        <v>139320.2040965663</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26866.46827102821</v>
+        <v>68855.14086905855</v>
       </c>
       <c r="F81" t="n">
-        <v>20149.85120327116</v>
+        <v>51641.35565179391</v>
       </c>
       <c r="G81" t="n">
-        <v>33583.08533878527</v>
+        <v>86068.92608632318</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14496.29582969148</v>
+        <v>37152.05442575102</v>
       </c>
       <c r="F82" t="n">
-        <v>10872.22187226861</v>
+        <v>27864.04081931326</v>
       </c>
       <c r="G82" t="n">
-        <v>18120.36978711435</v>
+        <v>46440.06803218877</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9132.666372705635</v>
+        <v>23405.79428822314</v>
       </c>
       <c r="F83" t="n">
-        <v>6849.499779529226</v>
+        <v>17554.34571616735</v>
       </c>
       <c r="G83" t="n">
-        <v>11415.83296588204</v>
+        <v>29257.24286027892</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>7683.036789736487</v>
+        <v>19690.58884564804</v>
       </c>
       <c r="F84" t="n">
-        <v>5762.277592302365</v>
+        <v>14767.94163423603</v>
       </c>
       <c r="G84" t="n">
-        <v>9603.795987170606</v>
+        <v>24613.23605706005</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5170.345512589963</v>
+        <v>13250.8994118512</v>
       </c>
       <c r="F85" t="n">
-        <v>3877.759134442472</v>
+        <v>9938.174558888397</v>
       </c>
       <c r="G85" t="n">
-        <v>6462.931890737453</v>
+        <v>16563.62426481399</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49389.31281858461</v>
+        <v>304377.2789272902</v>
       </c>
       <c r="F86" t="n">
-        <v>37041.98461393846</v>
+        <v>228282.9591954676</v>
       </c>
       <c r="G86" t="n">
-        <v>61736.64102323077</v>
+        <v>380471.5986591128</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30511.61991903672</v>
+        <v>188037.5189817482</v>
       </c>
       <c r="F87" t="n">
-        <v>22883.71493927754</v>
+        <v>141028.1392363111</v>
       </c>
       <c r="G87" t="n">
-        <v>38139.5248987959</v>
+        <v>235046.8987271852</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16463.10427286154</v>
+        <v>101459.0929757634</v>
       </c>
       <c r="F88" t="n">
-        <v>12347.32820464615</v>
+        <v>76094.31973182254</v>
       </c>
       <c r="G88" t="n">
-        <v>20578.88034107692</v>
+        <v>126823.8662197043</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10371.75569190277</v>
+        <v>63919.22857473095</v>
       </c>
       <c r="F89" t="n">
-        <v>7778.816768927077</v>
+        <v>47939.42143104821</v>
       </c>
       <c r="G89" t="n">
-        <v>12964.69461487846</v>
+        <v>79899.03571841367</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>8725.445264616616</v>
+        <v>53773.31927715459</v>
       </c>
       <c r="F90" t="n">
-        <v>6544.083948462461</v>
+        <v>40329.98945786595</v>
       </c>
       <c r="G90" t="n">
-        <v>10906.80658077077</v>
+        <v>67216.64909644325</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5871.840523987282</v>
+        <v>36187.07649468895</v>
       </c>
       <c r="F91" t="n">
-        <v>4403.880392990462</v>
+        <v>27140.30737101671</v>
       </c>
       <c r="G91" t="n">
-        <v>7339.800654984102</v>
+        <v>45233.84561836118</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>49396.7337886895</v>
+        <v>234385.4703156747</v>
       </c>
       <c r="F92" t="n">
-        <v>37047.55034151713</v>
+        <v>175789.102736756</v>
       </c>
       <c r="G92" t="n">
-        <v>61745.91723586187</v>
+        <v>292981.8378945934</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30516.20442945707</v>
+        <v>144798.1349950168</v>
       </c>
       <c r="F93" t="n">
-        <v>22887.1533220928</v>
+        <v>108598.6012462626</v>
       </c>
       <c r="G93" t="n">
-        <v>38145.25553682134</v>
+        <v>180997.668743771</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16465.57792956317</v>
+        <v>78128.49010522492</v>
       </c>
       <c r="F94" t="n">
-        <v>12349.18344717237</v>
+        <v>58596.36757891867</v>
       </c>
       <c r="G94" t="n">
-        <v>20581.97241195396</v>
+        <v>97660.61263153113</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10373.3140956248</v>
+        <v>49220.94876629169</v>
       </c>
       <c r="F95" t="n">
-        <v>7779.985571718596</v>
+        <v>36915.71157471877</v>
       </c>
       <c r="G95" t="n">
-        <v>12966.64261953099</v>
+        <v>61526.18595786462</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8726.756302668478</v>
+        <v>41408.0997557692</v>
       </c>
       <c r="F96" t="n">
-        <v>6545.067227001358</v>
+        <v>31056.0748168269</v>
       </c>
       <c r="G96" t="n">
-        <v>10908.4453783356</v>
+        <v>51760.1246947115</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5872.72279487753</v>
+        <v>27865.82813753022</v>
       </c>
       <c r="F97" t="n">
-        <v>4404.542096158148</v>
+        <v>20899.37110314766</v>
       </c>
       <c r="G97" t="n">
-        <v>7340.903493596911</v>
+        <v>34832.28517191276</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>49395.07981485825</v>
+        <v>158788.3184719437</v>
       </c>
       <c r="F98" t="n">
-        <v>37046.30986114369</v>
+        <v>119091.2388539578</v>
       </c>
       <c r="G98" t="n">
-        <v>61743.84976857282</v>
+        <v>198485.3980899296</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30515.1826411791</v>
+        <v>98095.89452266744</v>
       </c>
       <c r="F99" t="n">
-        <v>22886.38698088433</v>
+        <v>73571.92089200058</v>
       </c>
       <c r="G99" t="n">
-        <v>38143.97830147388</v>
+        <v>122619.8681533343</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16465.02660495275</v>
+        <v>52929.4394906479</v>
       </c>
       <c r="F100" t="n">
-        <v>12348.76995371456</v>
+        <v>39697.07961798592</v>
       </c>
       <c r="G100" t="n">
-        <v>20581.28325619094</v>
+        <v>66161.79936330988</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10372.96676112023</v>
+        <v>33345.54687910818</v>
       </c>
       <c r="F101" t="n">
-        <v>7779.725070840176</v>
+        <v>25009.16015933114</v>
       </c>
       <c r="G101" t="n">
-        <v>12966.20845140029</v>
+        <v>41681.93359888522</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>8726.464100624959</v>
+        <v>28052.60293004339</v>
       </c>
       <c r="F102" t="n">
-        <v>6544.848075468719</v>
+        <v>21039.45219753254</v>
       </c>
       <c r="G102" t="n">
-        <v>10908.0801257812</v>
+        <v>35065.75366255423</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5872.526155766482</v>
+        <v>18878.16675166442</v>
       </c>
       <c r="F103" t="n">
-        <v>4404.394616824862</v>
+        <v>14158.62506374831</v>
       </c>
       <c r="G103" t="n">
-        <v>7340.657694708102</v>
+        <v>23597.70843958052</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>49396.52025061573</v>
+        <v>108343.7638503948</v>
       </c>
       <c r="F104" t="n">
-        <v>37047.3901879618</v>
+        <v>81257.82288779609</v>
       </c>
       <c r="G104" t="n">
-        <v>61745.65031326967</v>
+        <v>135429.7048129935</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30516.07251038039</v>
+        <v>66932.36966757722</v>
       </c>
       <c r="F105" t="n">
-        <v>22887.05438278529</v>
+        <v>50199.27725068292</v>
       </c>
       <c r="G105" t="n">
-        <v>38145.09063797548</v>
+        <v>83665.46208447154</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16465.50675020524</v>
+        <v>36114.5879501316</v>
       </c>
       <c r="F106" t="n">
-        <v>12349.13006265393</v>
+        <v>27085.9409625987</v>
       </c>
       <c r="G106" t="n">
-        <v>20581.88343775655</v>
+        <v>45143.2349376645</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10373.2692526293</v>
+        <v>22752.19040858291</v>
       </c>
       <c r="F107" t="n">
-        <v>7779.951939471977</v>
+        <v>17064.14280643718</v>
       </c>
       <c r="G107" t="n">
-        <v>12966.58656578663</v>
+        <v>28440.23801072863</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>8726.718577608779</v>
+        <v>19140.73161356974</v>
       </c>
       <c r="F108" t="n">
-        <v>6545.038933206584</v>
+        <v>14355.54871017731</v>
       </c>
       <c r="G108" t="n">
-        <v>10908.39822201097</v>
+        <v>23925.91451696218</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5872.697407573202</v>
+        <v>12880.8697022136</v>
       </c>
       <c r="F109" t="n">
-        <v>4404.523055679903</v>
+        <v>9660.652276660203</v>
       </c>
       <c r="G109" t="n">
-        <v>7340.871759466504</v>
+        <v>16101.087127767</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49391.4832885759</v>
+        <v>87635.16962524856</v>
       </c>
       <c r="F110" t="n">
-        <v>37043.61246643192</v>
+        <v>65726.37721893642</v>
       </c>
       <c r="G110" t="n">
-        <v>61739.35411071987</v>
+        <v>109543.9620315607</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30512.96078716466</v>
+        <v>54139.06034626466</v>
       </c>
       <c r="F111" t="n">
-        <v>22884.7205903735</v>
+        <v>40604.29525969849</v>
       </c>
       <c r="G111" t="n">
-        <v>38141.20098395584</v>
+        <v>67673.82543283084</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16463.82776285863</v>
+        <v>29211.72320841618</v>
       </c>
       <c r="F112" t="n">
-        <v>12347.87082214397</v>
+        <v>21908.79240631214</v>
       </c>
       <c r="G112" t="n">
-        <v>20579.78470357329</v>
+        <v>36514.65401052023</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10372.21149060094</v>
+        <v>18403.3856213022</v>
       </c>
       <c r="F113" t="n">
-        <v>7779.158617950704</v>
+        <v>13802.53921597665</v>
       </c>
       <c r="G113" t="n">
-        <v>12965.26436325117</v>
+        <v>23004.23202662775</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>8725.828714315076</v>
+        <v>15482.21330046058</v>
       </c>
       <c r="F114" t="n">
-        <v>6544.371535736307</v>
+        <v>11611.65997534543</v>
       </c>
       <c r="G114" t="n">
-        <v>10907.28589289384</v>
+        <v>19352.76662557572</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5872.098568752912</v>
+        <v>10418.84794433511</v>
       </c>
       <c r="F115" t="n">
-        <v>4404.073926564684</v>
+        <v>7814.13595825133</v>
       </c>
       <c r="G115" t="n">
-        <v>7340.12321094114</v>
+        <v>13023.55993041888</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46655.21834783145</v>
+        <v>257322.4585785999</v>
       </c>
       <c r="F116" t="n">
-        <v>34991.41376087359</v>
+        <v>192991.8439339499</v>
       </c>
       <c r="G116" t="n">
-        <v>58319.02293478932</v>
+        <v>321653.07322325</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28822.55711266032</v>
+        <v>158968.0966330018</v>
       </c>
       <c r="F117" t="n">
-        <v>21616.91783449524</v>
+        <v>119226.0724747513</v>
       </c>
       <c r="G117" t="n">
-        <v>36028.1963908254</v>
+        <v>198710.1207912522</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>15551.73944927715</v>
+        <v>85774.15285953334</v>
       </c>
       <c r="F118" t="n">
-        <v>11663.80458695786</v>
+        <v>64330.61464464998</v>
       </c>
       <c r="G118" t="n">
-        <v>19439.67431159644</v>
+        <v>107217.6910744167</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>9797.595853044606</v>
+        <v>54037.716301506</v>
       </c>
       <c r="F119" t="n">
-        <v>7348.196889783454</v>
+        <v>40528.2872261295</v>
       </c>
       <c r="G119" t="n">
-        <v>12246.99481630576</v>
+        <v>67547.14537688249</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>8242.42190811689</v>
+        <v>45460.30101555266</v>
       </c>
       <c r="F120" t="n">
-        <v>6181.816431087668</v>
+        <v>34095.22576166449</v>
       </c>
       <c r="G120" t="n">
-        <v>10303.02738514611</v>
+        <v>56825.37626944082</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5546.787070242184</v>
+        <v>30592.78118656688</v>
       </c>
       <c r="F121" t="n">
-        <v>4160.090302681639</v>
+        <v>22944.58588992517</v>
       </c>
       <c r="G121" t="n">
-        <v>6933.483837802731</v>
+        <v>38240.9764832086</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43488.88748907444</v>
+        <v>111456.163277253</v>
       </c>
       <c r="F122" t="n">
-        <v>32616.66561680584</v>
+        <v>83592.12245793978</v>
       </c>
       <c r="G122" t="n">
-        <v>54361.10936134306</v>
+        <v>139320.2040965663</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26866.46827102821</v>
+        <v>68855.14086905855</v>
       </c>
       <c r="F123" t="n">
-        <v>20149.85120327116</v>
+        <v>51641.35565179391</v>
       </c>
       <c r="G123" t="n">
-        <v>33583.08533878527</v>
+        <v>86068.92608632318</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>14496.29582969148</v>
+        <v>37152.05442575102</v>
       </c>
       <c r="F124" t="n">
-        <v>10872.22187226861</v>
+        <v>27864.04081931326</v>
       </c>
       <c r="G124" t="n">
-        <v>18120.36978711435</v>
+        <v>46440.06803218877</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9132.666372705635</v>
+        <v>23405.79428822314</v>
       </c>
       <c r="F125" t="n">
-        <v>6849.499779529226</v>
+        <v>17554.34571616735</v>
       </c>
       <c r="G125" t="n">
-        <v>11415.83296588204</v>
+        <v>29257.24286027892</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>7683.036789736487</v>
+        <v>19690.58884564804</v>
       </c>
       <c r="F126" t="n">
-        <v>5762.277592302365</v>
+        <v>14767.94163423603</v>
       </c>
       <c r="G126" t="n">
-        <v>9603.795987170606</v>
+        <v>24613.23605706005</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5170.345512589963</v>
+        <v>13250.8994118512</v>
       </c>
       <c r="F127" t="n">
-        <v>3877.759134442472</v>
+        <v>9938.174558888397</v>
       </c>
       <c r="G127" t="n">
-        <v>6462.931890737453</v>
+        <v>16563.62426481399</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49389.31281858461</v>
+        <v>304377.2789272902</v>
       </c>
       <c r="F128" t="n">
-        <v>37041.98461393846</v>
+        <v>228282.9591954676</v>
       </c>
       <c r="G128" t="n">
-        <v>61736.64102323077</v>
+        <v>380471.5986591128</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30511.61991903672</v>
+        <v>188037.5189817482</v>
       </c>
       <c r="F129" t="n">
-        <v>22883.71493927754</v>
+        <v>141028.1392363111</v>
       </c>
       <c r="G129" t="n">
-        <v>38139.5248987959</v>
+        <v>235046.8987271852</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16463.10427286154</v>
+        <v>101459.0929757634</v>
       </c>
       <c r="F130" t="n">
-        <v>12347.32820464615</v>
+        <v>76094.31973182254</v>
       </c>
       <c r="G130" t="n">
-        <v>20578.88034107692</v>
+        <v>126823.8662197043</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>10371.75569190277</v>
+        <v>63919.22857473095</v>
       </c>
       <c r="F131" t="n">
-        <v>7778.816768927077</v>
+        <v>47939.42143104821</v>
       </c>
       <c r="G131" t="n">
-        <v>12964.69461487846</v>
+        <v>79899.03571841367</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>8725.445264616616</v>
+        <v>53773.31927715459</v>
       </c>
       <c r="F132" t="n">
-        <v>6544.083948462461</v>
+        <v>40329.98945786595</v>
       </c>
       <c r="G132" t="n">
-        <v>10906.80658077077</v>
+        <v>67216.64909644325</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5871.840523987282</v>
+        <v>36187.07649468895</v>
       </c>
       <c r="F133" t="n">
-        <v>4403.880392990462</v>
+        <v>27140.30737101671</v>
       </c>
       <c r="G133" t="n">
-        <v>7339.800654984102</v>
+        <v>45233.84561836118</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>49396.7337886895</v>
+        <v>234385.4703156747</v>
       </c>
       <c r="F134" t="n">
-        <v>37047.55034151713</v>
+        <v>175789.102736756</v>
       </c>
       <c r="G134" t="n">
-        <v>61745.91723586187</v>
+        <v>292981.8378945934</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30516.20442945707</v>
+        <v>144798.1349950168</v>
       </c>
       <c r="F135" t="n">
-        <v>22887.1533220928</v>
+        <v>108598.6012462626</v>
       </c>
       <c r="G135" t="n">
-        <v>38145.25553682134</v>
+        <v>180997.668743771</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16465.57792956317</v>
+        <v>78128.49010522492</v>
       </c>
       <c r="F136" t="n">
-        <v>12349.18344717237</v>
+        <v>58596.36757891867</v>
       </c>
       <c r="G136" t="n">
-        <v>20581.97241195396</v>
+        <v>97660.61263153113</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10373.3140956248</v>
+        <v>49220.94876629169</v>
       </c>
       <c r="F137" t="n">
-        <v>7779.985571718596</v>
+        <v>36915.71157471877</v>
       </c>
       <c r="G137" t="n">
-        <v>12966.64261953099</v>
+        <v>61526.18595786462</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>8726.756302668478</v>
+        <v>41408.0997557692</v>
       </c>
       <c r="F138" t="n">
-        <v>6545.067227001358</v>
+        <v>31056.0748168269</v>
       </c>
       <c r="G138" t="n">
-        <v>10908.4453783356</v>
+        <v>51760.1246947115</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5872.72279487753</v>
+        <v>27865.82813753022</v>
       </c>
       <c r="F139" t="n">
-        <v>4404.542096158148</v>
+        <v>20899.37110314766</v>
       </c>
       <c r="G139" t="n">
-        <v>7340.903493596911</v>
+        <v>34832.28517191276</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49395.07981485825</v>
+        <v>158788.3184719437</v>
       </c>
       <c r="F140" t="n">
-        <v>37046.30986114369</v>
+        <v>119091.2388539578</v>
       </c>
       <c r="G140" t="n">
-        <v>61743.84976857282</v>
+        <v>198485.3980899296</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30515.1826411791</v>
+        <v>98095.89452266744</v>
       </c>
       <c r="F141" t="n">
-        <v>22886.38698088433</v>
+        <v>73571.92089200058</v>
       </c>
       <c r="G141" t="n">
-        <v>38143.97830147388</v>
+        <v>122619.8681533343</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16465.02660495275</v>
+        <v>52929.4394906479</v>
       </c>
       <c r="F142" t="n">
-        <v>12348.76995371456</v>
+        <v>39697.07961798592</v>
       </c>
       <c r="G142" t="n">
-        <v>20581.28325619094</v>
+        <v>66161.79936330988</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10372.96676112023</v>
+        <v>33345.54687910818</v>
       </c>
       <c r="F143" t="n">
-        <v>7779.725070840176</v>
+        <v>25009.16015933114</v>
       </c>
       <c r="G143" t="n">
-        <v>12966.20845140029</v>
+        <v>41681.93359888522</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8726.464100624959</v>
+        <v>28052.60293004339</v>
       </c>
       <c r="F144" t="n">
-        <v>6544.848075468719</v>
+        <v>21039.45219753254</v>
       </c>
       <c r="G144" t="n">
-        <v>10908.0801257812</v>
+        <v>35065.75366255423</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5872.526155766482</v>
+        <v>18878.16675166442</v>
       </c>
       <c r="F145" t="n">
-        <v>4404.394616824862</v>
+        <v>14158.62506374831</v>
       </c>
       <c r="G145" t="n">
-        <v>7340.657694708102</v>
+        <v>23597.70843958052</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>49396.52025061573</v>
+        <v>108343.7638503948</v>
       </c>
       <c r="F146" t="n">
-        <v>37047.3901879618</v>
+        <v>81257.82288779609</v>
       </c>
       <c r="G146" t="n">
-        <v>61745.65031326967</v>
+        <v>135429.7048129935</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30516.07251038039</v>
+        <v>66932.36966757722</v>
       </c>
       <c r="F147" t="n">
-        <v>22887.05438278529</v>
+        <v>50199.27725068292</v>
       </c>
       <c r="G147" t="n">
-        <v>38145.09063797548</v>
+        <v>83665.46208447154</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16465.50675020524</v>
+        <v>36114.5879501316</v>
       </c>
       <c r="F148" t="n">
-        <v>12349.13006265393</v>
+        <v>27085.9409625987</v>
       </c>
       <c r="G148" t="n">
-        <v>20581.88343775655</v>
+        <v>45143.2349376645</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10373.2692526293</v>
+        <v>22752.19040858291</v>
       </c>
       <c r="F149" t="n">
-        <v>7779.951939471977</v>
+        <v>17064.14280643718</v>
       </c>
       <c r="G149" t="n">
-        <v>12966.58656578663</v>
+        <v>28440.23801072863</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8726.718577608779</v>
+        <v>19140.73161356974</v>
       </c>
       <c r="F150" t="n">
-        <v>6545.038933206584</v>
+        <v>14355.54871017731</v>
       </c>
       <c r="G150" t="n">
-        <v>10908.39822201097</v>
+        <v>23925.91451696218</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5872.697407573202</v>
+        <v>12880.8697022136</v>
       </c>
       <c r="F151" t="n">
-        <v>4404.523055679903</v>
+        <v>9660.652276660203</v>
       </c>
       <c r="G151" t="n">
-        <v>7340.871759466504</v>
+        <v>16101.087127767</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>49391.4832885759</v>
+        <v>87635.16962524856</v>
       </c>
       <c r="F152" t="n">
-        <v>37043.61246643192</v>
+        <v>65726.37721893642</v>
       </c>
       <c r="G152" t="n">
-        <v>61739.35411071987</v>
+        <v>109543.9620315607</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30512.96078716466</v>
+        <v>54139.06034626466</v>
       </c>
       <c r="F153" t="n">
-        <v>22884.7205903735</v>
+        <v>40604.29525969849</v>
       </c>
       <c r="G153" t="n">
-        <v>38141.20098395584</v>
+        <v>67673.82543283084</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16463.82776285863</v>
+        <v>29211.72320841618</v>
       </c>
       <c r="F154" t="n">
-        <v>12347.87082214397</v>
+        <v>21908.79240631214</v>
       </c>
       <c r="G154" t="n">
-        <v>20579.78470357329</v>
+        <v>36514.65401052023</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10372.21149060094</v>
+        <v>18403.3856213022</v>
       </c>
       <c r="F155" t="n">
-        <v>7779.158617950704</v>
+        <v>13802.53921597665</v>
       </c>
       <c r="G155" t="n">
-        <v>12965.26436325117</v>
+        <v>23004.23202662775</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>8725.828714315076</v>
+        <v>15482.21330046058</v>
       </c>
       <c r="F156" t="n">
-        <v>6544.371535736307</v>
+        <v>11611.65997534543</v>
       </c>
       <c r="G156" t="n">
-        <v>10907.28589289384</v>
+        <v>19352.76662557572</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>5872.098568752912</v>
+        <v>10418.84794433511</v>
       </c>
       <c r="F157" t="n">
-        <v>4404.073926564684</v>
+        <v>7814.13595825133</v>
       </c>
       <c r="G157" t="n">
-        <v>7340.12321094114</v>
+        <v>13023.55993041888</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>46655.21834783145</v>
+        <v>257322.4585785999</v>
       </c>
       <c r="F158" t="n">
-        <v>34991.41376087359</v>
+        <v>192991.8439339499</v>
       </c>
       <c r="G158" t="n">
-        <v>58319.02293478932</v>
+        <v>321653.07322325</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28822.55711266032</v>
+        <v>158968.0966330018</v>
       </c>
       <c r="F159" t="n">
-        <v>21616.91783449524</v>
+        <v>119226.0724747513</v>
       </c>
       <c r="G159" t="n">
-        <v>36028.1963908254</v>
+        <v>198710.1207912522</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>15551.73944927715</v>
+        <v>85774.15285953334</v>
       </c>
       <c r="F160" t="n">
-        <v>11663.80458695786</v>
+        <v>64330.61464464998</v>
       </c>
       <c r="G160" t="n">
-        <v>19439.67431159644</v>
+        <v>107217.6910744167</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>9797.595853044606</v>
+        <v>54037.716301506</v>
       </c>
       <c r="F161" t="n">
-        <v>7348.196889783454</v>
+        <v>40528.2872261295</v>
       </c>
       <c r="G161" t="n">
-        <v>12246.99481630576</v>
+        <v>67547.14537688249</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8242.42190811689</v>
+        <v>45460.30101555266</v>
       </c>
       <c r="F162" t="n">
-        <v>6181.816431087668</v>
+        <v>34095.22576166449</v>
       </c>
       <c r="G162" t="n">
-        <v>10303.02738514611</v>
+        <v>56825.37626944082</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5546.787070242184</v>
+        <v>30592.78118656688</v>
       </c>
       <c r="F163" t="n">
-        <v>4160.090302681639</v>
+        <v>22944.58588992517</v>
       </c>
       <c r="G163" t="n">
-        <v>6933.483837802731</v>
+        <v>38240.9764832086</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43488.88748907444</v>
+        <v>111456.163277253</v>
       </c>
       <c r="F164" t="n">
-        <v>32616.66561680584</v>
+        <v>83592.12245793978</v>
       </c>
       <c r="G164" t="n">
-        <v>54361.10936134306</v>
+        <v>139320.2040965663</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26866.46827102821</v>
+        <v>68855.14086905855</v>
       </c>
       <c r="F165" t="n">
-        <v>20149.85120327116</v>
+        <v>51641.35565179391</v>
       </c>
       <c r="G165" t="n">
-        <v>33583.08533878527</v>
+        <v>86068.92608632318</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14496.29582969148</v>
+        <v>37152.05442575102</v>
       </c>
       <c r="F166" t="n">
-        <v>10872.22187226861</v>
+        <v>27864.04081931326</v>
       </c>
       <c r="G166" t="n">
-        <v>18120.36978711435</v>
+        <v>46440.06803218877</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9132.666372705635</v>
+        <v>23405.79428822314</v>
       </c>
       <c r="F167" t="n">
-        <v>6849.499779529226</v>
+        <v>17554.34571616735</v>
       </c>
       <c r="G167" t="n">
-        <v>11415.83296588204</v>
+        <v>29257.24286027892</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>7683.036789736487</v>
+        <v>19690.58884564804</v>
       </c>
       <c r="F168" t="n">
-        <v>5762.277592302365</v>
+        <v>14767.94163423603</v>
       </c>
       <c r="G168" t="n">
-        <v>9603.795987170606</v>
+        <v>24613.23605706005</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5170.345512589963</v>
+        <v>13250.8994118512</v>
       </c>
       <c r="F169" t="n">
-        <v>3877.759134442472</v>
+        <v>9938.174558888397</v>
       </c>
       <c r="G169" t="n">
-        <v>6462.931890737453</v>
+        <v>16563.62426481399</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>49389.31281858461</v>
+        <v>328056.0974410855</v>
       </c>
       <c r="F170" t="n">
-        <v>37041.98461393846</v>
+        <v>246042.0730808141</v>
       </c>
       <c r="G170" t="n">
-        <v>61736.64102323077</v>
+        <v>410070.1218013568</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30511.61991903672</v>
+        <v>202665.7668636039</v>
       </c>
       <c r="F171" t="n">
-        <v>22883.71493927754</v>
+        <v>151999.3251477029</v>
       </c>
       <c r="G171" t="n">
-        <v>38139.5248987959</v>
+        <v>253332.2085795049</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16463.10427286154</v>
+        <v>109352.0324803618</v>
       </c>
       <c r="F172" t="n">
-        <v>12347.32820464615</v>
+        <v>82014.02436027137</v>
       </c>
       <c r="G172" t="n">
-        <v>20578.88034107692</v>
+        <v>136690.0406004523</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>10371.75569190277</v>
+        <v>68891.78046262795</v>
       </c>
       <c r="F173" t="n">
-        <v>7778.816768927077</v>
+        <v>51668.83534697096</v>
       </c>
       <c r="G173" t="n">
-        <v>12964.69461487846</v>
+        <v>86114.72557828494</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>8725.445264616616</v>
+        <v>57956.57721459176</v>
       </c>
       <c r="F174" t="n">
-        <v>6544.083948462461</v>
+        <v>43467.43291094383</v>
       </c>
       <c r="G174" t="n">
-        <v>10906.80658077077</v>
+        <v>72445.7215182397</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>5871.840523987282</v>
+        <v>39002.22491799571</v>
       </c>
       <c r="F175" t="n">
-        <v>4403.880392990462</v>
+        <v>29251.66868849679</v>
       </c>
       <c r="G175" t="n">
-        <v>7339.800654984102</v>
+        <v>48752.78114749464</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49396.7337886895</v>
+        <v>259024.1120772361</v>
       </c>
       <c r="F176" t="n">
-        <v>37047.55034151713</v>
+        <v>194268.0840579271</v>
       </c>
       <c r="G176" t="n">
-        <v>61745.91723586187</v>
+        <v>323780.1400965452</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30516.20442945707</v>
+        <v>160019.340349937</v>
       </c>
       <c r="F177" t="n">
-        <v>22887.1533220928</v>
+        <v>120014.5052624527</v>
       </c>
       <c r="G177" t="n">
-        <v>38145.25553682134</v>
+        <v>200024.1754374213</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16465.57792956317</v>
+        <v>86341.37069241206</v>
       </c>
       <c r="F178" t="n">
-        <v>12349.18344717237</v>
+        <v>64756.02801930903</v>
       </c>
       <c r="G178" t="n">
-        <v>20581.97241195396</v>
+        <v>107926.7133655151</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10373.3140956248</v>
+        <v>54395.0635362196</v>
       </c>
       <c r="F179" t="n">
-        <v>7779.985571718596</v>
+        <v>40796.2976521647</v>
       </c>
       <c r="G179" t="n">
-        <v>12966.64261953099</v>
+        <v>67993.82942027449</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>8726.756302668478</v>
+        <v>45760.92646697839</v>
       </c>
       <c r="F180" t="n">
-        <v>6545.067227001358</v>
+        <v>34320.69485023379</v>
       </c>
       <c r="G180" t="n">
-        <v>10908.4453783356</v>
+        <v>57201.15808372298</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5872.72279487753</v>
+        <v>30795.08888029363</v>
       </c>
       <c r="F181" t="n">
-        <v>4404.542096158148</v>
+        <v>23096.31666022022</v>
       </c>
       <c r="G181" t="n">
-        <v>7340.903493596911</v>
+        <v>38493.86110036704</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>49395.07981485825</v>
+        <v>178666.1737682048</v>
       </c>
       <c r="F182" t="n">
-        <v>37046.30986114369</v>
+        <v>133999.6303261536</v>
       </c>
       <c r="G182" t="n">
-        <v>61743.84976857282</v>
+        <v>223332.7172102561</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30515.1826411791</v>
+        <v>110375.9917945799</v>
       </c>
       <c r="F183" t="n">
-        <v>22886.38698088433</v>
+        <v>82781.99384593492</v>
       </c>
       <c r="G183" t="n">
-        <v>38143.97830147388</v>
+        <v>137969.9897432249</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16465.02660495275</v>
+        <v>59555.39125606829</v>
       </c>
       <c r="F184" t="n">
-        <v>12348.76995371456</v>
+        <v>44666.54344205121</v>
       </c>
       <c r="G184" t="n">
-        <v>20581.28325619094</v>
+        <v>74444.23907008536</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10372.96676112023</v>
+        <v>37519.89649132302</v>
       </c>
       <c r="F185" t="n">
-        <v>7779.725070840176</v>
+        <v>28139.92236849227</v>
       </c>
       <c r="G185" t="n">
-        <v>12966.20845140029</v>
+        <v>46899.87061415378</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>8726.464100624959</v>
+        <v>31564.35736571619</v>
       </c>
       <c r="F186" t="n">
-        <v>6544.848075468719</v>
+        <v>23673.26802428714</v>
       </c>
       <c r="G186" t="n">
-        <v>10908.0801257812</v>
+        <v>39455.44670714524</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>5872.526155766482</v>
+        <v>21241.42288133102</v>
       </c>
       <c r="F187" t="n">
-        <v>4404.394616824862</v>
+        <v>15931.06716099827</v>
       </c>
       <c r="G187" t="n">
-        <v>7340.657694708102</v>
+        <v>26551.77860166377</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>49396.52025061573</v>
+        <v>123156.9827471685</v>
       </c>
       <c r="F188" t="n">
-        <v>37047.3901879618</v>
+        <v>92367.73706037637</v>
       </c>
       <c r="G188" t="n">
-        <v>61745.65031326967</v>
+        <v>153946.2284339606</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30516.07251038039</v>
+        <v>76083.64711936186</v>
       </c>
       <c r="F189" t="n">
-        <v>22887.05438278529</v>
+        <v>57062.7353395214</v>
       </c>
       <c r="G189" t="n">
-        <v>38145.09063797548</v>
+        <v>95104.55889920234</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>16465.50675020524</v>
+        <v>41052.3275823895</v>
       </c>
       <c r="F190" t="n">
-        <v>12349.13006265393</v>
+        <v>30789.24568679212</v>
       </c>
       <c r="G190" t="n">
-        <v>20581.88343775655</v>
+        <v>51315.40947798688</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>10373.2692526293</v>
+        <v>25862.96637690538</v>
       </c>
       <c r="F191" t="n">
-        <v>7779.951939471977</v>
+        <v>19397.22478267904</v>
       </c>
       <c r="G191" t="n">
-        <v>12966.58656578663</v>
+        <v>32328.70797113173</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>8726.718577608779</v>
+        <v>21757.73361866643</v>
       </c>
       <c r="F192" t="n">
-        <v>6545.038933206584</v>
+        <v>16318.30021399983</v>
       </c>
       <c r="G192" t="n">
-        <v>10908.39822201097</v>
+        <v>27197.16702333304</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5872.697407573202</v>
+        <v>14641.99683771892</v>
       </c>
       <c r="F193" t="n">
-        <v>4404.523055679903</v>
+        <v>10981.49762828919</v>
       </c>
       <c r="G193" t="n">
-        <v>7340.871759466504</v>
+        <v>18302.49604714865</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>49391.4832885759</v>
+        <v>100800.3828993245</v>
       </c>
       <c r="F194" t="n">
-        <v>37043.61246643192</v>
+        <v>75600.28717449341</v>
       </c>
       <c r="G194" t="n">
-        <v>61739.35411071987</v>
+        <v>126000.4786241557</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30512.96078716466</v>
+        <v>62272.23654669383</v>
       </c>
       <c r="F195" t="n">
-        <v>22884.7205903735</v>
+        <v>46704.17741002037</v>
       </c>
       <c r="G195" t="n">
-        <v>38141.20098395584</v>
+        <v>77840.29568336729</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16463.82776285863</v>
+        <v>33600.12763310818</v>
       </c>
       <c r="F196" t="n">
-        <v>12347.87082214397</v>
+        <v>25200.09572483114</v>
       </c>
       <c r="G196" t="n">
-        <v>20579.78470357329</v>
+        <v>42000.15954138523</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10372.21149060094</v>
+        <v>21168.08040885816</v>
       </c>
       <c r="F197" t="n">
-        <v>7779.158617950704</v>
+        <v>15876.06030664362</v>
       </c>
       <c r="G197" t="n">
-        <v>12965.26436325117</v>
+        <v>26460.10051107269</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>8725.828714315076</v>
+        <v>17808.06764554734</v>
       </c>
       <c r="F198" t="n">
-        <v>6544.371535736307</v>
+        <v>13356.0507341605</v>
       </c>
       <c r="G198" t="n">
-        <v>10907.28589289384</v>
+        <v>22260.08455693417</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5872.098568752912</v>
+        <v>11984.04552247525</v>
       </c>
       <c r="F199" t="n">
-        <v>4404.073926564684</v>
+        <v>8988.034141856439</v>
       </c>
       <c r="G199" t="n">
-        <v>7340.12321094114</v>
+        <v>14980.05690309406</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>46655.21834783145</v>
+        <v>271953.2864948059</v>
       </c>
       <c r="F200" t="n">
-        <v>34991.41376087359</v>
+        <v>203964.9648711044</v>
       </c>
       <c r="G200" t="n">
-        <v>58319.02293478932</v>
+        <v>339941.6081185073</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28822.55711266032</v>
+        <v>168006.6969901245</v>
       </c>
       <c r="F201" t="n">
-        <v>21616.91783449524</v>
+        <v>126005.0227425934</v>
       </c>
       <c r="G201" t="n">
-        <v>36028.1963908254</v>
+        <v>210008.3712376557</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15551.73944927715</v>
+        <v>90651.09549826862</v>
       </c>
       <c r="F202" t="n">
-        <v>11663.80458695786</v>
+        <v>67988.32162370147</v>
       </c>
       <c r="G202" t="n">
-        <v>19439.67431159644</v>
+        <v>113313.8693728358</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>9797.595853044606</v>
+        <v>57110.19016390924</v>
       </c>
       <c r="F203" t="n">
-        <v>7348.196889783454</v>
+        <v>42832.64262293193</v>
       </c>
       <c r="G203" t="n">
-        <v>12246.99481630576</v>
+        <v>71387.73770488655</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>8242.42190811689</v>
+        <v>48045.08061408237</v>
       </c>
       <c r="F204" t="n">
-        <v>6181.816431087668</v>
+        <v>36033.81046056178</v>
       </c>
       <c r="G204" t="n">
-        <v>10303.02738514611</v>
+        <v>60056.35076760296</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>5546.787070242184</v>
+        <v>32332.22406104915</v>
       </c>
       <c r="F205" t="n">
-        <v>4160.090302681639</v>
+        <v>24249.16804578686</v>
       </c>
       <c r="G205" t="n">
-        <v>6933.483837802731</v>
+        <v>40415.28007631143</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43488.88748907444</v>
+        <v>112671.9034937595</v>
       </c>
       <c r="F206" t="n">
-        <v>32616.66561680584</v>
+        <v>84503.92762031961</v>
       </c>
       <c r="G206" t="n">
-        <v>54361.10936134306</v>
+        <v>140839.8793671993</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26866.46827102821</v>
+        <v>69606.19815836697</v>
       </c>
       <c r="F207" t="n">
-        <v>20149.85120327116</v>
+        <v>52204.64861877522</v>
       </c>
       <c r="G207" t="n">
-        <v>33583.08533878527</v>
+        <v>87007.74769795871</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14496.29582969148</v>
+        <v>37557.30116458649</v>
       </c>
       <c r="F208" t="n">
-        <v>10872.22187226861</v>
+        <v>28167.97587343987</v>
       </c>
       <c r="G208" t="n">
-        <v>18120.36978711435</v>
+        <v>46946.62645573312</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9132.666372705635</v>
+        <v>23661.09973368949</v>
       </c>
       <c r="F209" t="n">
-        <v>6849.499779529226</v>
+        <v>17745.82480026712</v>
       </c>
       <c r="G209" t="n">
-        <v>11415.83296588204</v>
+        <v>29576.37466711186</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>7683.036789736487</v>
+        <v>19905.36961723084</v>
       </c>
       <c r="F210" t="n">
-        <v>5762.277592302365</v>
+        <v>14929.02721292313</v>
       </c>
       <c r="G210" t="n">
-        <v>9603.795987170606</v>
+        <v>24881.71202153855</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>5170.345512589963</v>
+        <v>13395.43741536918</v>
       </c>
       <c r="F211" t="n">
-        <v>3877.759134442472</v>
+        <v>10046.57806152689</v>
       </c>
       <c r="G211" t="n">
-        <v>6462.931890737453</v>
+        <v>16744.29676921148</v>
       </c>
     </row>
     <row r="212">
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>49389.31281858461</v>
+        <v>304377.2789272902</v>
       </c>
       <c r="F212" t="n">
-        <v>37041.98461393846</v>
+        <v>228282.9591954676</v>
       </c>
       <c r="G212" t="n">
-        <v>61736.64102323077</v>
+        <v>380471.5986591128</v>
       </c>
     </row>
     <row r="213">
@@ -6604,13 +6604,13 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30511.61991903672</v>
+        <v>188037.5189817482</v>
       </c>
       <c r="F213" t="n">
-        <v>22883.71493927754</v>
+        <v>141028.1392363111</v>
       </c>
       <c r="G213" t="n">
-        <v>38139.5248987959</v>
+        <v>235046.8987271852</v>
       </c>
     </row>
     <row r="214">
@@ -6633,13 +6633,13 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16463.10427286154</v>
+        <v>101459.0929757634</v>
       </c>
       <c r="F214" t="n">
-        <v>12347.32820464615</v>
+        <v>76094.31973182254</v>
       </c>
       <c r="G214" t="n">
-        <v>20578.88034107692</v>
+        <v>126823.8662197043</v>
       </c>
     </row>
     <row r="215">
@@ -6662,13 +6662,13 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10371.75569190277</v>
+        <v>63919.22857473095</v>
       </c>
       <c r="F215" t="n">
-        <v>7778.816768927077</v>
+        <v>47939.42143104821</v>
       </c>
       <c r="G215" t="n">
-        <v>12964.69461487846</v>
+        <v>79899.03571841367</v>
       </c>
     </row>
     <row r="216">
@@ -6691,13 +6691,13 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8725.445264616616</v>
+        <v>53773.31927715459</v>
       </c>
       <c r="F216" t="n">
-        <v>6544.083948462461</v>
+        <v>40329.98945786595</v>
       </c>
       <c r="G216" t="n">
-        <v>10906.80658077077</v>
+        <v>67216.64909644325</v>
       </c>
     </row>
     <row r="217">
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>5871.840523987282</v>
+        <v>36187.07649468895</v>
       </c>
       <c r="F217" t="n">
-        <v>4403.880392990462</v>
+        <v>27140.30737101671</v>
       </c>
       <c r="G217" t="n">
-        <v>7339.800654984102</v>
+        <v>45233.84561836118</v>
       </c>
     </row>
     <row r="218">
@@ -6749,13 +6749,13 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>49396.7337886895</v>
+        <v>234385.4703156747</v>
       </c>
       <c r="F218" t="n">
-        <v>37047.55034151713</v>
+        <v>175789.102736756</v>
       </c>
       <c r="G218" t="n">
-        <v>61745.91723586187</v>
+        <v>292981.8378945934</v>
       </c>
     </row>
     <row r="219">
@@ -6778,13 +6778,13 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30516.20442945707</v>
+        <v>144798.1349950168</v>
       </c>
       <c r="F219" t="n">
-        <v>22887.1533220928</v>
+        <v>108598.6012462626</v>
       </c>
       <c r="G219" t="n">
-        <v>38145.25553682134</v>
+        <v>180997.668743771</v>
       </c>
     </row>
     <row r="220">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16465.57792956317</v>
+        <v>78128.49010522492</v>
       </c>
       <c r="F220" t="n">
-        <v>12349.18344717237</v>
+        <v>58596.36757891867</v>
       </c>
       <c r="G220" t="n">
-        <v>20581.97241195396</v>
+        <v>97660.61263153113</v>
       </c>
     </row>
     <row r="221">
@@ -6836,13 +6836,13 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10373.3140956248</v>
+        <v>49220.94876629169</v>
       </c>
       <c r="F221" t="n">
-        <v>7779.985571718596</v>
+        <v>36915.71157471877</v>
       </c>
       <c r="G221" t="n">
-        <v>12966.64261953099</v>
+        <v>61526.18595786462</v>
       </c>
     </row>
     <row r="222">
@@ -6865,13 +6865,13 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>8726.756302668478</v>
+        <v>41408.0997557692</v>
       </c>
       <c r="F222" t="n">
-        <v>6545.067227001358</v>
+        <v>31056.0748168269</v>
       </c>
       <c r="G222" t="n">
-        <v>10908.4453783356</v>
+        <v>51760.1246947115</v>
       </c>
     </row>
     <row r="223">
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>5872.72279487753</v>
+        <v>27865.82813753022</v>
       </c>
       <c r="F223" t="n">
-        <v>4404.542096158148</v>
+        <v>20899.37110314766</v>
       </c>
       <c r="G223" t="n">
-        <v>7340.903493596911</v>
+        <v>34832.28517191276</v>
       </c>
     </row>
     <row r="224">
@@ -6923,13 +6923,13 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49395.07981485825</v>
+        <v>158788.3184719437</v>
       </c>
       <c r="F224" t="n">
-        <v>37046.30986114369</v>
+        <v>119091.2388539578</v>
       </c>
       <c r="G224" t="n">
-        <v>61743.84976857282</v>
+        <v>198485.3980899296</v>
       </c>
     </row>
     <row r="225">
@@ -6952,13 +6952,13 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30515.1826411791</v>
+        <v>98095.89452266744</v>
       </c>
       <c r="F225" t="n">
-        <v>22886.38698088433</v>
+        <v>73571.92089200058</v>
       </c>
       <c r="G225" t="n">
-        <v>38143.97830147388</v>
+        <v>122619.8681533343</v>
       </c>
     </row>
     <row r="226">
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16465.02660495275</v>
+        <v>52929.4394906479</v>
       </c>
       <c r="F226" t="n">
-        <v>12348.76995371456</v>
+        <v>39697.07961798592</v>
       </c>
       <c r="G226" t="n">
-        <v>20581.28325619094</v>
+        <v>66161.79936330988</v>
       </c>
     </row>
     <row r="227">
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>10372.96676112023</v>
+        <v>33345.54687910818</v>
       </c>
       <c r="F227" t="n">
-        <v>7779.725070840176</v>
+        <v>25009.16015933114</v>
       </c>
       <c r="G227" t="n">
-        <v>12966.20845140029</v>
+        <v>41681.93359888522</v>
       </c>
     </row>
     <row r="228">
@@ -7039,13 +7039,13 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8726.464100624959</v>
+        <v>28052.60293004339</v>
       </c>
       <c r="F228" t="n">
-        <v>6544.848075468719</v>
+        <v>21039.45219753254</v>
       </c>
       <c r="G228" t="n">
-        <v>10908.0801257812</v>
+        <v>35065.75366255423</v>
       </c>
     </row>
     <row r="229">
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5872.526155766482</v>
+        <v>18878.16675166442</v>
       </c>
       <c r="F229" t="n">
-        <v>4404.394616824862</v>
+        <v>14158.62506374831</v>
       </c>
       <c r="G229" t="n">
-        <v>7340.657694708102</v>
+        <v>23597.70843958052</v>
       </c>
     </row>
     <row r="230">
@@ -7097,13 +7097,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49396.52025061573</v>
+        <v>108343.7638503948</v>
       </c>
       <c r="F230" t="n">
-        <v>37047.3901879618</v>
+        <v>81257.82288779609</v>
       </c>
       <c r="G230" t="n">
-        <v>61745.65031326967</v>
+        <v>135429.7048129935</v>
       </c>
     </row>
     <row r="231">
@@ -7126,13 +7126,13 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30516.07251038039</v>
+        <v>66932.36966757722</v>
       </c>
       <c r="F231" t="n">
-        <v>22887.05438278529</v>
+        <v>50199.27725068292</v>
       </c>
       <c r="G231" t="n">
-        <v>38145.09063797548</v>
+        <v>83665.46208447154</v>
       </c>
     </row>
     <row r="232">
@@ -7155,13 +7155,13 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16465.50675020524</v>
+        <v>36114.5879501316</v>
       </c>
       <c r="F232" t="n">
-        <v>12349.13006265393</v>
+        <v>27085.9409625987</v>
       </c>
       <c r="G232" t="n">
-        <v>20581.88343775655</v>
+        <v>45143.2349376645</v>
       </c>
     </row>
     <row r="233">
@@ -7184,13 +7184,13 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10373.2692526293</v>
+        <v>22752.19040858291</v>
       </c>
       <c r="F233" t="n">
-        <v>7779.951939471977</v>
+        <v>17064.14280643718</v>
       </c>
       <c r="G233" t="n">
-        <v>12966.58656578663</v>
+        <v>28440.23801072863</v>
       </c>
     </row>
     <row r="234">
@@ -7213,13 +7213,13 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8726.718577608779</v>
+        <v>19140.73161356974</v>
       </c>
       <c r="F234" t="n">
-        <v>6545.038933206584</v>
+        <v>14355.54871017731</v>
       </c>
       <c r="G234" t="n">
-        <v>10908.39822201097</v>
+        <v>23925.91451696218</v>
       </c>
     </row>
     <row r="235">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>5872.697407573202</v>
+        <v>12880.8697022136</v>
       </c>
       <c r="F235" t="n">
-        <v>4404.523055679903</v>
+        <v>9660.652276660203</v>
       </c>
       <c r="G235" t="n">
-        <v>7340.871759466504</v>
+        <v>16101.087127767</v>
       </c>
     </row>
     <row r="236">
@@ -7271,13 +7271,13 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49391.4832885759</v>
+        <v>87635.16962524856</v>
       </c>
       <c r="F236" t="n">
-        <v>37043.61246643192</v>
+        <v>65726.37721893642</v>
       </c>
       <c r="G236" t="n">
-        <v>61739.35411071987</v>
+        <v>109543.9620315607</v>
       </c>
     </row>
     <row r="237">
@@ -7300,13 +7300,13 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30512.96078716466</v>
+        <v>54139.06034626466</v>
       </c>
       <c r="F237" t="n">
-        <v>22884.7205903735</v>
+        <v>40604.29525969849</v>
       </c>
       <c r="G237" t="n">
-        <v>38141.20098395584</v>
+        <v>67673.82543283084</v>
       </c>
     </row>
     <row r="238">
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16463.82776285863</v>
+        <v>29211.72320841618</v>
       </c>
       <c r="F238" t="n">
-        <v>12347.87082214397</v>
+        <v>21908.79240631214</v>
       </c>
       <c r="G238" t="n">
-        <v>20579.78470357329</v>
+        <v>36514.65401052023</v>
       </c>
     </row>
     <row r="239">
@@ -7358,13 +7358,13 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>10372.21149060094</v>
+        <v>18403.3856213022</v>
       </c>
       <c r="F239" t="n">
-        <v>7779.158617950704</v>
+        <v>13802.53921597665</v>
       </c>
       <c r="G239" t="n">
-        <v>12965.26436325117</v>
+        <v>23004.23202662775</v>
       </c>
     </row>
     <row r="240">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8725.828714315076</v>
+        <v>15482.21330046058</v>
       </c>
       <c r="F240" t="n">
-        <v>6544.371535736307</v>
+        <v>11611.65997534543</v>
       </c>
       <c r="G240" t="n">
-        <v>10907.28589289384</v>
+        <v>19352.76662557572</v>
       </c>
     </row>
     <row r="241">
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5872.098568752912</v>
+        <v>10418.84794433511</v>
       </c>
       <c r="F241" t="n">
-        <v>4404.073926564684</v>
+        <v>7814.13595825133</v>
       </c>
       <c r="G241" t="n">
-        <v>7340.12321094114</v>
+        <v>13023.55993041888</v>
       </c>
     </row>
     <row r="242">
@@ -7445,13 +7445,13 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46655.21834783145</v>
+        <v>257322.4585785999</v>
       </c>
       <c r="F242" t="n">
-        <v>34991.41376087359</v>
+        <v>192991.8439339499</v>
       </c>
       <c r="G242" t="n">
-        <v>58319.02293478932</v>
+        <v>321653.07322325</v>
       </c>
     </row>
     <row r="243">
@@ -7474,13 +7474,13 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28822.55711266032</v>
+        <v>158968.0966330018</v>
       </c>
       <c r="F243" t="n">
-        <v>21616.91783449524</v>
+        <v>119226.0724747513</v>
       </c>
       <c r="G243" t="n">
-        <v>36028.1963908254</v>
+        <v>198710.1207912522</v>
       </c>
     </row>
     <row r="244">
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15551.73944927715</v>
+        <v>85774.15285953334</v>
       </c>
       <c r="F244" t="n">
-        <v>11663.80458695786</v>
+        <v>64330.61464464998</v>
       </c>
       <c r="G244" t="n">
-        <v>19439.67431159644</v>
+        <v>107217.6910744167</v>
       </c>
     </row>
     <row r="245">
@@ -7532,13 +7532,13 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9797.595853044606</v>
+        <v>54037.716301506</v>
       </c>
       <c r="F245" t="n">
-        <v>7348.196889783454</v>
+        <v>40528.2872261295</v>
       </c>
       <c r="G245" t="n">
-        <v>12246.99481630576</v>
+        <v>67547.14537688249</v>
       </c>
     </row>
     <row r="246">
@@ -7561,13 +7561,13 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8242.42190811689</v>
+        <v>45460.30101555266</v>
       </c>
       <c r="F246" t="n">
-        <v>6181.816431087668</v>
+        <v>34095.22576166449</v>
       </c>
       <c r="G246" t="n">
-        <v>10303.02738514611</v>
+        <v>56825.37626944082</v>
       </c>
     </row>
     <row r="247">
@@ -7590,13 +7590,13 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5546.787070242184</v>
+        <v>30592.78118656688</v>
       </c>
       <c r="F247" t="n">
-        <v>4160.090302681639</v>
+        <v>22944.58588992517</v>
       </c>
       <c r="G247" t="n">
-        <v>6933.483837802731</v>
+        <v>38240.9764832086</v>
       </c>
     </row>
     <row r="248">
@@ -7619,13 +7619,13 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>43488.88748907444</v>
+        <v>111456.163277253</v>
       </c>
       <c r="F248" t="n">
-        <v>32616.66561680584</v>
+        <v>83592.12245793978</v>
       </c>
       <c r="G248" t="n">
-        <v>54361.10936134306</v>
+        <v>139320.2040965663</v>
       </c>
     </row>
     <row r="249">
@@ -7648,13 +7648,13 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26866.46827102821</v>
+        <v>68855.14086905855</v>
       </c>
       <c r="F249" t="n">
-        <v>20149.85120327116</v>
+        <v>51641.35565179391</v>
       </c>
       <c r="G249" t="n">
-        <v>33583.08533878527</v>
+        <v>86068.92608632318</v>
       </c>
     </row>
     <row r="250">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14496.29582969148</v>
+        <v>37152.05442575102</v>
       </c>
       <c r="F250" t="n">
-        <v>10872.22187226861</v>
+        <v>27864.04081931326</v>
       </c>
       <c r="G250" t="n">
-        <v>18120.36978711435</v>
+        <v>46440.06803218877</v>
       </c>
     </row>
     <row r="251">
@@ -7706,13 +7706,13 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>9132.666372705635</v>
+        <v>23405.79428822314</v>
       </c>
       <c r="F251" t="n">
-        <v>6849.499779529226</v>
+        <v>17554.34571616735</v>
       </c>
       <c r="G251" t="n">
-        <v>11415.83296588204</v>
+        <v>29257.24286027892</v>
       </c>
     </row>
     <row r="252">
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>7683.036789736487</v>
+        <v>19690.58884564804</v>
       </c>
       <c r="F252" t="n">
-        <v>5762.277592302365</v>
+        <v>14767.94163423603</v>
       </c>
       <c r="G252" t="n">
-        <v>9603.795987170606</v>
+        <v>24613.23605706005</v>
       </c>
     </row>
     <row r="253">
@@ -7764,13 +7764,13 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>5170.345512589963</v>
+        <v>13250.8994118512</v>
       </c>
       <c r="F253" t="n">
-        <v>3877.759134442472</v>
+        <v>9938.174558888397</v>
       </c>
       <c r="G253" t="n">
-        <v>6462.931890737453</v>
+        <v>16563.62426481399</v>
       </c>
     </row>
     <row r="254">
@@ -7793,13 +7793,13 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>49389.31281858461</v>
+        <v>304377.2789272902</v>
       </c>
       <c r="F254" t="n">
-        <v>37041.98461393846</v>
+        <v>228282.9591954676</v>
       </c>
       <c r="G254" t="n">
-        <v>61736.64102323077</v>
+        <v>380471.5986591128</v>
       </c>
     </row>
     <row r="255">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30511.61991903672</v>
+        <v>188037.5189817482</v>
       </c>
       <c r="F255" t="n">
-        <v>22883.71493927754</v>
+        <v>141028.1392363111</v>
       </c>
       <c r="G255" t="n">
-        <v>38139.5248987959</v>
+        <v>235046.8987271852</v>
       </c>
     </row>
     <row r="256">
@@ -7851,13 +7851,13 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16463.10427286154</v>
+        <v>101459.0929757634</v>
       </c>
       <c r="F256" t="n">
-        <v>12347.32820464615</v>
+        <v>76094.31973182254</v>
       </c>
       <c r="G256" t="n">
-        <v>20578.88034107692</v>
+        <v>126823.8662197043</v>
       </c>
     </row>
     <row r="257">
@@ -7880,13 +7880,13 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10371.75569190277</v>
+        <v>63919.22857473095</v>
       </c>
       <c r="F257" t="n">
-        <v>7778.816768927077</v>
+        <v>47939.42143104821</v>
       </c>
       <c r="G257" t="n">
-        <v>12964.69461487846</v>
+        <v>79899.03571841367</v>
       </c>
     </row>
     <row r="258">
@@ -7909,13 +7909,13 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>8725.445264616616</v>
+        <v>53773.31927715459</v>
       </c>
       <c r="F258" t="n">
-        <v>6544.083948462461</v>
+        <v>40329.98945786595</v>
       </c>
       <c r="G258" t="n">
-        <v>10906.80658077077</v>
+        <v>67216.64909644325</v>
       </c>
     </row>
     <row r="259">
@@ -7938,13 +7938,13 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5871.840523987282</v>
+        <v>36187.07649468895</v>
       </c>
       <c r="F259" t="n">
-        <v>4403.880392990462</v>
+        <v>27140.30737101671</v>
       </c>
       <c r="G259" t="n">
-        <v>7339.800654984102</v>
+        <v>45233.84561836118</v>
       </c>
     </row>
     <row r="260">
@@ -7967,13 +7967,13 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49396.7337886895</v>
+        <v>234385.4703156747</v>
       </c>
       <c r="F260" t="n">
-        <v>37047.55034151713</v>
+        <v>175789.102736756</v>
       </c>
       <c r="G260" t="n">
-        <v>61745.91723586187</v>
+        <v>292981.8378945934</v>
       </c>
     </row>
     <row r="261">
@@ -7996,13 +7996,13 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30516.20442945707</v>
+        <v>144798.1349950168</v>
       </c>
       <c r="F261" t="n">
-        <v>22887.1533220928</v>
+        <v>108598.6012462626</v>
       </c>
       <c r="G261" t="n">
-        <v>38145.25553682134</v>
+        <v>180997.668743771</v>
       </c>
     </row>
     <row r="262">
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>16465.57792956317</v>
+        <v>78128.49010522492</v>
       </c>
       <c r="F262" t="n">
-        <v>12349.18344717237</v>
+        <v>58596.36757891867</v>
       </c>
       <c r="G262" t="n">
-        <v>20581.97241195396</v>
+        <v>97660.61263153113</v>
       </c>
     </row>
     <row r="263">
@@ -8054,13 +8054,13 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10373.3140956248</v>
+        <v>49220.94876629169</v>
       </c>
       <c r="F263" t="n">
-        <v>7779.985571718596</v>
+        <v>36915.71157471877</v>
       </c>
       <c r="G263" t="n">
-        <v>12966.64261953099</v>
+        <v>61526.18595786462</v>
       </c>
     </row>
     <row r="264">
@@ -8083,13 +8083,13 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>8726.756302668478</v>
+        <v>41408.0997557692</v>
       </c>
       <c r="F264" t="n">
-        <v>6545.067227001358</v>
+        <v>31056.0748168269</v>
       </c>
       <c r="G264" t="n">
-        <v>10908.4453783356</v>
+        <v>51760.1246947115</v>
       </c>
     </row>
     <row r="265">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>5872.72279487753</v>
+        <v>27865.82813753022</v>
       </c>
       <c r="F265" t="n">
-        <v>4404.542096158148</v>
+        <v>20899.37110314766</v>
       </c>
       <c r="G265" t="n">
-        <v>7340.903493596911</v>
+        <v>34832.28517191276</v>
       </c>
     </row>
     <row r="266">
@@ -8141,13 +8141,13 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49395.07981485825</v>
+        <v>158788.3184719437</v>
       </c>
       <c r="F266" t="n">
-        <v>37046.30986114369</v>
+        <v>119091.2388539578</v>
       </c>
       <c r="G266" t="n">
-        <v>61743.84976857282</v>
+        <v>198485.3980899296</v>
       </c>
     </row>
     <row r="267">
@@ -8170,13 +8170,13 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30515.1826411791</v>
+        <v>98095.89452266744</v>
       </c>
       <c r="F267" t="n">
-        <v>22886.38698088433</v>
+        <v>73571.92089200058</v>
       </c>
       <c r="G267" t="n">
-        <v>38143.97830147388</v>
+        <v>122619.8681533343</v>
       </c>
     </row>
     <row r="268">
@@ -8199,13 +8199,13 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16465.02660495275</v>
+        <v>52929.4394906479</v>
       </c>
       <c r="F268" t="n">
-        <v>12348.76995371456</v>
+        <v>39697.07961798592</v>
       </c>
       <c r="G268" t="n">
-        <v>20581.28325619094</v>
+        <v>66161.79936330988</v>
       </c>
     </row>
     <row r="269">
@@ -8228,13 +8228,13 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10372.96676112023</v>
+        <v>33345.54687910818</v>
       </c>
       <c r="F269" t="n">
-        <v>7779.725070840176</v>
+        <v>25009.16015933114</v>
       </c>
       <c r="G269" t="n">
-        <v>12966.20845140029</v>
+        <v>41681.93359888522</v>
       </c>
     </row>
     <row r="270">
@@ -8257,13 +8257,13 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8726.464100624959</v>
+        <v>28052.60293004339</v>
       </c>
       <c r="F270" t="n">
-        <v>6544.848075468719</v>
+        <v>21039.45219753254</v>
       </c>
       <c r="G270" t="n">
-        <v>10908.0801257812</v>
+        <v>35065.75366255423</v>
       </c>
     </row>
     <row r="271">
@@ -8286,13 +8286,13 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5872.526155766482</v>
+        <v>18878.16675166442</v>
       </c>
       <c r="F271" t="n">
-        <v>4404.394616824862</v>
+        <v>14158.62506374831</v>
       </c>
       <c r="G271" t="n">
-        <v>7340.657694708102</v>
+        <v>23597.70843958052</v>
       </c>
     </row>
     <row r="272">
@@ -8315,13 +8315,13 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>49396.52025061573</v>
+        <v>108343.7638503948</v>
       </c>
       <c r="F272" t="n">
-        <v>37047.3901879618</v>
+        <v>81257.82288779609</v>
       </c>
       <c r="G272" t="n">
-        <v>61745.65031326967</v>
+        <v>135429.7048129935</v>
       </c>
     </row>
     <row r="273">
@@ -8344,13 +8344,13 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30516.07251038039</v>
+        <v>66932.36966757722</v>
       </c>
       <c r="F273" t="n">
-        <v>22887.05438278529</v>
+        <v>50199.27725068292</v>
       </c>
       <c r="G273" t="n">
-        <v>38145.09063797548</v>
+        <v>83665.46208447154</v>
       </c>
     </row>
     <row r="274">
@@ -8373,13 +8373,13 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16465.50675020524</v>
+        <v>36114.5879501316</v>
       </c>
       <c r="F274" t="n">
-        <v>12349.13006265393</v>
+        <v>27085.9409625987</v>
       </c>
       <c r="G274" t="n">
-        <v>20581.88343775655</v>
+        <v>45143.2349376645</v>
       </c>
     </row>
     <row r="275">
@@ -8402,13 +8402,13 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>10373.2692526293</v>
+        <v>22752.19040858291</v>
       </c>
       <c r="F275" t="n">
-        <v>7779.951939471977</v>
+        <v>17064.14280643718</v>
       </c>
       <c r="G275" t="n">
-        <v>12966.58656578663</v>
+        <v>28440.23801072863</v>
       </c>
     </row>
     <row r="276">
@@ -8431,13 +8431,13 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8726.718577608779</v>
+        <v>19140.73161356974</v>
       </c>
       <c r="F276" t="n">
-        <v>6545.038933206584</v>
+        <v>14355.54871017731</v>
       </c>
       <c r="G276" t="n">
-        <v>10908.39822201097</v>
+        <v>23925.91451696218</v>
       </c>
     </row>
     <row r="277">
@@ -8460,13 +8460,13 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>5872.697407573202</v>
+        <v>12880.8697022136</v>
       </c>
       <c r="F277" t="n">
-        <v>4404.523055679903</v>
+        <v>9660.652276660203</v>
       </c>
       <c r="G277" t="n">
-        <v>7340.871759466504</v>
+        <v>16101.087127767</v>
       </c>
     </row>
     <row r="278">
@@ -8489,13 +8489,13 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>49391.4832885759</v>
+        <v>87635.16962524856</v>
       </c>
       <c r="F278" t="n">
-        <v>37043.61246643192</v>
+        <v>65726.37721893642</v>
       </c>
       <c r="G278" t="n">
-        <v>61739.35411071987</v>
+        <v>109543.9620315607</v>
       </c>
     </row>
     <row r="279">
@@ -8518,13 +8518,13 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30512.96078716466</v>
+        <v>54139.06034626466</v>
       </c>
       <c r="F279" t="n">
-        <v>22884.7205903735</v>
+        <v>40604.29525969849</v>
       </c>
       <c r="G279" t="n">
-        <v>38141.20098395584</v>
+        <v>67673.82543283084</v>
       </c>
     </row>
     <row r="280">
@@ -8547,13 +8547,13 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16463.82776285863</v>
+        <v>29211.72320841618</v>
       </c>
       <c r="F280" t="n">
-        <v>12347.87082214397</v>
+        <v>21908.79240631214</v>
       </c>
       <c r="G280" t="n">
-        <v>20579.78470357329</v>
+        <v>36514.65401052023</v>
       </c>
     </row>
     <row r="281">
@@ -8576,13 +8576,13 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10372.21149060094</v>
+        <v>18403.3856213022</v>
       </c>
       <c r="F281" t="n">
-        <v>7779.158617950704</v>
+        <v>13802.53921597665</v>
       </c>
       <c r="G281" t="n">
-        <v>12965.26436325117</v>
+        <v>23004.23202662775</v>
       </c>
     </row>
     <row r="282">
@@ -8605,13 +8605,13 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8725.828714315076</v>
+        <v>15482.21330046058</v>
       </c>
       <c r="F282" t="n">
-        <v>6544.371535736307</v>
+        <v>11611.65997534543</v>
       </c>
       <c r="G282" t="n">
-        <v>10907.28589289384</v>
+        <v>19352.76662557572</v>
       </c>
     </row>
     <row r="283">
@@ -8634,13 +8634,13 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>5872.098568752912</v>
+        <v>10418.84794433511</v>
       </c>
       <c r="F283" t="n">
-        <v>4404.073926564684</v>
+        <v>7814.13595825133</v>
       </c>
       <c r="G283" t="n">
-        <v>7340.12321094114</v>
+        <v>13023.55993041888</v>
       </c>
     </row>
     <row r="284">
@@ -8663,13 +8663,13 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>46655.21834783145</v>
+        <v>257322.4585785999</v>
       </c>
       <c r="F284" t="n">
-        <v>34991.41376087359</v>
+        <v>192991.8439339499</v>
       </c>
       <c r="G284" t="n">
-        <v>58319.02293478932</v>
+        <v>321653.07322325</v>
       </c>
     </row>
     <row r="285">
@@ -8692,13 +8692,13 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28822.55711266032</v>
+        <v>158968.0966330018</v>
       </c>
       <c r="F285" t="n">
-        <v>21616.91783449524</v>
+        <v>119226.0724747513</v>
       </c>
       <c r="G285" t="n">
-        <v>36028.1963908254</v>
+        <v>198710.1207912522</v>
       </c>
     </row>
     <row r="286">
@@ -8721,13 +8721,13 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15551.73944927715</v>
+        <v>85774.15285953334</v>
       </c>
       <c r="F286" t="n">
-        <v>11663.80458695786</v>
+        <v>64330.61464464998</v>
       </c>
       <c r="G286" t="n">
-        <v>19439.67431159644</v>
+        <v>107217.6910744167</v>
       </c>
     </row>
     <row r="287">
@@ -8750,13 +8750,13 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9797.595853044606</v>
+        <v>54037.716301506</v>
       </c>
       <c r="F287" t="n">
-        <v>7348.196889783454</v>
+        <v>40528.2872261295</v>
       </c>
       <c r="G287" t="n">
-        <v>12246.99481630576</v>
+        <v>67547.14537688249</v>
       </c>
     </row>
     <row r="288">
@@ -8779,13 +8779,13 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8242.42190811689</v>
+        <v>45460.30101555266</v>
       </c>
       <c r="F288" t="n">
-        <v>6181.816431087668</v>
+        <v>34095.22576166449</v>
       </c>
       <c r="G288" t="n">
-        <v>10303.02738514611</v>
+        <v>56825.37626944082</v>
       </c>
     </row>
     <row r="289">
@@ -8808,13 +8808,13 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5546.787070242184</v>
+        <v>30592.78118656688</v>
       </c>
       <c r="F289" t="n">
-        <v>4160.090302681639</v>
+        <v>22944.58588992517</v>
       </c>
       <c r="G289" t="n">
-        <v>6933.483837802731</v>
+        <v>38240.9764832086</v>
       </c>
     </row>
     <row r="290">
@@ -8837,13 +8837,13 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>43488.88748907444</v>
+        <v>111456.163277253</v>
       </c>
       <c r="F290" t="n">
-        <v>32616.66561680584</v>
+        <v>83592.12245793978</v>
       </c>
       <c r="G290" t="n">
-        <v>54361.10936134306</v>
+        <v>139320.2040965663</v>
       </c>
     </row>
     <row r="291">
@@ -8866,13 +8866,13 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26866.46827102821</v>
+        <v>68855.14086905855</v>
       </c>
       <c r="F291" t="n">
-        <v>20149.85120327116</v>
+        <v>51641.35565179391</v>
       </c>
       <c r="G291" t="n">
-        <v>33583.08533878527</v>
+        <v>86068.92608632318</v>
       </c>
     </row>
     <row r="292">
@@ -8895,13 +8895,13 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14496.29582969148</v>
+        <v>37152.05442575102</v>
       </c>
       <c r="F292" t="n">
-        <v>10872.22187226861</v>
+        <v>27864.04081931326</v>
       </c>
       <c r="G292" t="n">
-        <v>18120.36978711435</v>
+        <v>46440.06803218877</v>
       </c>
     </row>
     <row r="293">
@@ -8924,13 +8924,13 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9132.666372705635</v>
+        <v>23405.79428822314</v>
       </c>
       <c r="F293" t="n">
-        <v>6849.499779529226</v>
+        <v>17554.34571616735</v>
       </c>
       <c r="G293" t="n">
-        <v>11415.83296588204</v>
+        <v>29257.24286027892</v>
       </c>
     </row>
     <row r="294">
@@ -8953,13 +8953,13 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>7683.036789736487</v>
+        <v>19690.58884564804</v>
       </c>
       <c r="F294" t="n">
-        <v>5762.277592302365</v>
+        <v>14767.94163423603</v>
       </c>
       <c r="G294" t="n">
-        <v>9603.795987170606</v>
+        <v>24613.23605706005</v>
       </c>
     </row>
     <row r="295">
@@ -8982,13 +8982,13 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5170.345512589963</v>
+        <v>13250.8994118512</v>
       </c>
       <c r="F295" t="n">
-        <v>3877.759134442472</v>
+        <v>9938.174558888397</v>
       </c>
       <c r="G295" t="n">
-        <v>6462.931890737453</v>
+        <v>16563.62426481399</v>
       </c>
     </row>
     <row r="296">
@@ -9011,13 +9011,13 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>49389.31281858461</v>
+        <v>517214.0713871452</v>
       </c>
       <c r="F296" t="n">
-        <v>37041.98461393846</v>
+        <v>387910.5535403589</v>
       </c>
       <c r="G296" t="n">
-        <v>61736.64102323077</v>
+        <v>646517.5892339315</v>
       </c>
     </row>
     <row r="297">
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30511.61991903672</v>
+        <v>319523.3596569475</v>
       </c>
       <c r="F297" t="n">
-        <v>22883.71493927754</v>
+        <v>239642.5197427106</v>
       </c>
       <c r="G297" t="n">
-        <v>38139.5248987959</v>
+        <v>399404.1995711844</v>
       </c>
     </row>
     <row r="298">
@@ -9069,13 +9069,13 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16463.10427286154</v>
+        <v>172404.6904623818</v>
       </c>
       <c r="F298" t="n">
-        <v>12347.32820464615</v>
+        <v>129303.5178467863</v>
       </c>
       <c r="G298" t="n">
-        <v>20578.88034107692</v>
+        <v>215505.8630779772</v>
       </c>
     </row>
     <row r="299">
@@ -9098,13 +9098,13 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10371.75569190277</v>
+        <v>108614.9549913005</v>
       </c>
       <c r="F299" t="n">
-        <v>7778.816768927077</v>
+        <v>81461.21624347538</v>
       </c>
       <c r="G299" t="n">
-        <v>12964.69461487846</v>
+        <v>135768.6937391256</v>
       </c>
     </row>
     <row r="300">
@@ -9127,13 +9127,13 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>8725.445264616616</v>
+        <v>91374.48594506233</v>
       </c>
       <c r="F300" t="n">
-        <v>6544.083948462461</v>
+        <v>68530.86445879676</v>
       </c>
       <c r="G300" t="n">
-        <v>10906.80658077077</v>
+        <v>114218.1074313279</v>
       </c>
     </row>
     <row r="301">
@@ -9156,13 +9156,13 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>5871.840523987282</v>
+        <v>61491.00626491616</v>
       </c>
       <c r="F301" t="n">
-        <v>4403.880392990462</v>
+        <v>46118.25469868712</v>
       </c>
       <c r="G301" t="n">
-        <v>7339.800654984102</v>
+        <v>76863.75783114519</v>
       </c>
     </row>
     <row r="302">
@@ -9185,13 +9185,13 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49396.7337886895</v>
+        <v>474237.2775274584</v>
       </c>
       <c r="F302" t="n">
-        <v>37047.55034151713</v>
+        <v>355677.9581455938</v>
       </c>
       <c r="G302" t="n">
-        <v>61745.91723586187</v>
+        <v>592796.596909323</v>
       </c>
     </row>
     <row r="303">
@@ -9214,13 +9214,13 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30516.20442945707</v>
+        <v>292973.2514502965</v>
       </c>
       <c r="F303" t="n">
-        <v>22887.1533220928</v>
+        <v>219729.9385877224</v>
       </c>
       <c r="G303" t="n">
-        <v>38145.25553682134</v>
+        <v>366216.5643128707</v>
       </c>
     </row>
     <row r="304">
@@ -9243,13 +9243,13 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16465.57792956317</v>
+        <v>158079.0925091528</v>
       </c>
       <c r="F304" t="n">
-        <v>12349.18344717237</v>
+        <v>118559.3193818646</v>
       </c>
       <c r="G304" t="n">
-        <v>20581.97241195396</v>
+        <v>197598.865636441</v>
       </c>
     </row>
     <row r="305">
@@ -9272,13 +9272,13 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10373.3140956248</v>
+        <v>99589.82828076629</v>
       </c>
       <c r="F305" t="n">
-        <v>7779.985571718596</v>
+        <v>74692.37121057471</v>
       </c>
       <c r="G305" t="n">
-        <v>12966.64261953099</v>
+        <v>124487.2853509578</v>
       </c>
     </row>
     <row r="306">
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>8726.756302668478</v>
+        <v>83781.91902985099</v>
       </c>
       <c r="F306" t="n">
-        <v>6545.067227001358</v>
+        <v>62836.43927238825</v>
       </c>
       <c r="G306" t="n">
-        <v>10908.4453783356</v>
+        <v>104727.3987873137</v>
       </c>
     </row>
     <row r="307">
@@ -9330,13 +9330,13 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>5872.72279487753</v>
+        <v>56381.54299493117</v>
       </c>
       <c r="F307" t="n">
-        <v>4404.542096158148</v>
+        <v>42286.15724619837</v>
       </c>
       <c r="G307" t="n">
-        <v>7340.903493596911</v>
+        <v>70476.92874366396</v>
       </c>
     </row>
     <row r="308">
@@ -9359,13 +9359,13 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>49395.07981485825</v>
+        <v>368012.8097202466</v>
       </c>
       <c r="F308" t="n">
-        <v>37046.30986114369</v>
+        <v>276009.607290185</v>
       </c>
       <c r="G308" t="n">
-        <v>61743.84976857282</v>
+        <v>460016.0121503083</v>
       </c>
     </row>
     <row r="309">
@@ -9388,13 +9388,13 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30515.1826411791</v>
+        <v>227350.1357827301</v>
       </c>
       <c r="F309" t="n">
-        <v>22886.38698088433</v>
+        <v>170512.6018370476</v>
       </c>
       <c r="G309" t="n">
-        <v>38143.97830147388</v>
+        <v>284187.6697284127</v>
       </c>
     </row>
     <row r="310">
@@ -9417,13 +9417,13 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>16465.02660495275</v>
+        <v>122670.9365734155</v>
       </c>
       <c r="F310" t="n">
-        <v>12348.76995371456</v>
+        <v>92003.20243006165</v>
       </c>
       <c r="G310" t="n">
-        <v>20581.28325619094</v>
+        <v>153338.6707167694</v>
       </c>
     </row>
     <row r="311">
@@ -9446,13 +9446,13 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>10372.96676112023</v>
+        <v>77282.6900412518</v>
       </c>
       <c r="F311" t="n">
-        <v>7779.725070840176</v>
+        <v>57962.01753093885</v>
       </c>
       <c r="G311" t="n">
-        <v>12966.20845140029</v>
+        <v>96603.36255156473</v>
       </c>
     </row>
     <row r="312">
@@ -9475,13 +9475,13 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>8726.464100624959</v>
+        <v>65015.59638391024</v>
       </c>
       <c r="F312" t="n">
-        <v>6544.848075468719</v>
+        <v>48761.69728793268</v>
       </c>
       <c r="G312" t="n">
-        <v>10908.0801257812</v>
+        <v>81269.49547988779</v>
       </c>
     </row>
     <row r="313">
@@ -9504,13 +9504,13 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>5872.526155766482</v>
+        <v>43752.63404451821</v>
       </c>
       <c r="F313" t="n">
-        <v>4404.394616824862</v>
+        <v>32814.47553338866</v>
       </c>
       <c r="G313" t="n">
-        <v>7340.657694708102</v>
+        <v>54690.79255564776</v>
       </c>
     </row>
     <row r="314">
@@ -9533,13 +9533,13 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49396.52025061573</v>
+        <v>274700.7953826105</v>
       </c>
       <c r="F314" t="n">
-        <v>37047.3901879618</v>
+        <v>206025.5965369578</v>
       </c>
       <c r="G314" t="n">
-        <v>61745.65031326967</v>
+        <v>343375.9942282631</v>
       </c>
     </row>
     <row r="315">
@@ -9562,13 +9562,13 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30516.07251038039</v>
+        <v>169704.0469252571</v>
       </c>
       <c r="F315" t="n">
-        <v>22887.05438278529</v>
+        <v>127278.0351939429</v>
       </c>
       <c r="G315" t="n">
-        <v>38145.09063797548</v>
+        <v>212130.0586565714</v>
       </c>
     </row>
     <row r="316">
@@ -9591,13 +9591,13 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16465.50675020524</v>
+        <v>91566.9317942035</v>
       </c>
       <c r="F316" t="n">
-        <v>12349.13006265393</v>
+        <v>68675.19884565262</v>
       </c>
       <c r="G316" t="n">
-        <v>20581.88343775655</v>
+        <v>114458.6647427544</v>
       </c>
     </row>
     <row r="317">
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10373.2692526293</v>
+        <v>57687.16703034821</v>
       </c>
       <c r="F317" t="n">
-        <v>7779.951939471977</v>
+        <v>43265.37527276116</v>
       </c>
       <c r="G317" t="n">
-        <v>12966.58656578663</v>
+        <v>72108.95878793525</v>
       </c>
     </row>
     <row r="318">
@@ -9649,13 +9649,13 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>8726.718577608779</v>
+        <v>48530.47385092785</v>
       </c>
       <c r="F318" t="n">
-        <v>6545.038933206584</v>
+        <v>36397.85538819589</v>
       </c>
       <c r="G318" t="n">
-        <v>10908.39822201097</v>
+        <v>60663.09231365981</v>
       </c>
     </row>
     <row r="319">
@@ -9678,13 +9678,13 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>5872.697407573202</v>
+        <v>32658.87233993258</v>
       </c>
       <c r="F319" t="n">
-        <v>4404.523055679903</v>
+        <v>24494.15425494943</v>
       </c>
       <c r="G319" t="n">
-        <v>7340.871759466504</v>
+        <v>40823.59042491572</v>
       </c>
     </row>
     <row r="320">
@@ -9707,13 +9707,13 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>49391.4832885759</v>
+        <v>241712.2901543995</v>
       </c>
       <c r="F320" t="n">
-        <v>37043.61246643192</v>
+        <v>181284.2176157997</v>
       </c>
       <c r="G320" t="n">
-        <v>61739.35411071987</v>
+        <v>302140.3626929994</v>
       </c>
     </row>
     <row r="321">
@@ -9736,13 +9736,13 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30512.96078716466</v>
+        <v>149324.4814731624</v>
       </c>
       <c r="F321" t="n">
-        <v>22884.7205903735</v>
+        <v>111993.3611048718</v>
       </c>
       <c r="G321" t="n">
-        <v>38141.20098395584</v>
+        <v>186655.601841453</v>
       </c>
     </row>
     <row r="322">
@@ -9765,13 +9765,13 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16463.82776285863</v>
+        <v>80570.76338479985</v>
       </c>
       <c r="F322" t="n">
-        <v>12347.87082214397</v>
+        <v>60428.07253859988</v>
       </c>
       <c r="G322" t="n">
-        <v>20579.78470357329</v>
+        <v>100713.4542309998</v>
       </c>
     </row>
     <row r="323">
@@ -9794,13 +9794,13 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10372.21149060094</v>
+        <v>50759.58093242391</v>
       </c>
       <c r="F323" t="n">
-        <v>7779.158617950704</v>
+        <v>38069.68569931793</v>
       </c>
       <c r="G323" t="n">
-        <v>12965.26436325117</v>
+        <v>63449.47616552988</v>
       </c>
     </row>
     <row r="324">
@@ -9823,13 +9823,13 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>8725.828714315076</v>
+        <v>42702.50459394392</v>
       </c>
       <c r="F324" t="n">
-        <v>6544.371535736307</v>
+        <v>32026.87844545794</v>
       </c>
       <c r="G324" t="n">
-        <v>10907.28589289384</v>
+        <v>53378.13074242989</v>
       </c>
     </row>
     <row r="325">
@@ -9852,13 +9852,13 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5872.098568752912</v>
+        <v>28736.90560724528</v>
       </c>
       <c r="F325" t="n">
-        <v>4404.073926564684</v>
+        <v>21552.67920543396</v>
       </c>
       <c r="G325" t="n">
-        <v>7340.12321094114</v>
+        <v>35921.13200905659</v>
       </c>
     </row>
     <row r="326">
@@ -9881,13 +9881,13 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>46655.21834783145</v>
+        <v>366420.1393113486</v>
       </c>
       <c r="F326" t="n">
-        <v>34991.41376087359</v>
+        <v>274815.1044835115</v>
       </c>
       <c r="G326" t="n">
-        <v>58319.02293478932</v>
+        <v>458025.1741391858</v>
       </c>
     </row>
     <row r="327">
@@ -9910,13 +9910,13 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28822.55711266032</v>
+        <v>226366.2193967887</v>
       </c>
       <c r="F327" t="n">
-        <v>21616.91783449524</v>
+        <v>169774.6645475915</v>
       </c>
       <c r="G327" t="n">
-        <v>36028.1963908254</v>
+        <v>282957.7742459859</v>
       </c>
     </row>
     <row r="328">
@@ -9939,13 +9939,13 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15551.73944927715</v>
+        <v>122140.0464371162</v>
       </c>
       <c r="F328" t="n">
-        <v>11663.80458695786</v>
+        <v>91605.03482783715</v>
       </c>
       <c r="G328" t="n">
-        <v>19439.67431159644</v>
+        <v>152675.0580463953</v>
       </c>
     </row>
     <row r="329">
@@ -9968,13 +9968,13 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>9797.595853044606</v>
+        <v>76948.22925538322</v>
       </c>
       <c r="F329" t="n">
-        <v>7348.196889783454</v>
+        <v>57711.17194153742</v>
       </c>
       <c r="G329" t="n">
-        <v>12246.99481630576</v>
+        <v>96185.28656922901</v>
       </c>
     </row>
     <row r="330">
@@ -9997,13 +9997,13 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>8242.42190811689</v>
+        <v>64734.22461167159</v>
       </c>
       <c r="F330" t="n">
-        <v>6181.816431087668</v>
+        <v>48550.6684587537</v>
       </c>
       <c r="G330" t="n">
-        <v>10303.02738514611</v>
+        <v>80917.78076458948</v>
       </c>
     </row>
     <row r="331">
@@ -10026,13 +10026,13 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5546.787070242184</v>
+        <v>43563.28322923811</v>
       </c>
       <c r="F331" t="n">
-        <v>4160.090302681639</v>
+        <v>32672.46242192859</v>
       </c>
       <c r="G331" t="n">
-        <v>6933.483837802731</v>
+        <v>54454.10403654764</v>
       </c>
     </row>
     <row r="332">
@@ -10055,13 +10055,13 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>43488.88748907444</v>
+        <v>122874.1602374075</v>
       </c>
       <c r="F332" t="n">
-        <v>32616.66561680584</v>
+        <v>92155.62017805559</v>
       </c>
       <c r="G332" t="n">
-        <v>54361.10936134306</v>
+        <v>153592.7002967593</v>
       </c>
     </row>
     <row r="333">
@@ -10084,13 +10084,13 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26866.46827102821</v>
+        <v>75908.92565777617</v>
       </c>
       <c r="F333" t="n">
-        <v>20149.85120327116</v>
+        <v>56931.69424333212</v>
       </c>
       <c r="G333" t="n">
-        <v>33583.08533878527</v>
+        <v>94886.15707222022</v>
       </c>
     </row>
     <row r="334">
@@ -10113,13 +10113,13 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14496.29582969148</v>
+        <v>40958.05341246916</v>
       </c>
       <c r="F334" t="n">
-        <v>10872.22187226861</v>
+        <v>30718.54005935186</v>
       </c>
       <c r="G334" t="n">
-        <v>18120.36978711435</v>
+        <v>51197.56676558645</v>
       </c>
     </row>
     <row r="335">
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9132.666372705635</v>
+        <v>25803.57364985557</v>
       </c>
       <c r="F335" t="n">
-        <v>6849.499779529226</v>
+        <v>19352.68023739168</v>
       </c>
       <c r="G335" t="n">
-        <v>11415.83296588204</v>
+        <v>32254.46706231946</v>
       </c>
     </row>
     <row r="336">
@@ -10171,13 +10171,13 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7683.036789736487</v>
+        <v>21707.76830860865</v>
       </c>
       <c r="F336" t="n">
-        <v>5762.277592302365</v>
+        <v>16280.82623145649</v>
       </c>
       <c r="G336" t="n">
-        <v>9603.795987170606</v>
+        <v>27134.71038576081</v>
       </c>
     </row>
     <row r="337">
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>5170.345512589963</v>
+        <v>14608.37238378066</v>
       </c>
       <c r="F337" t="n">
-        <v>3877.759134442472</v>
+        <v>10956.2792878355</v>
       </c>
       <c r="G337" t="n">
-        <v>6462.931890737453</v>
+        <v>18260.46547972583</v>
       </c>
     </row>
     <row r="338">
@@ -10229,13 +10229,13 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49389.31281858461</v>
+        <v>304377.2789272902</v>
       </c>
       <c r="F338" t="n">
-        <v>37041.98461393846</v>
+        <v>228282.9591954676</v>
       </c>
       <c r="G338" t="n">
-        <v>61736.64102323077</v>
+        <v>380471.5986591128</v>
       </c>
     </row>
     <row r="339">
@@ -10258,13 +10258,13 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30511.61991903672</v>
+        <v>188037.5189817482</v>
       </c>
       <c r="F339" t="n">
-        <v>22883.71493927754</v>
+        <v>141028.1392363111</v>
       </c>
       <c r="G339" t="n">
-        <v>38139.5248987959</v>
+        <v>235046.8987271852</v>
       </c>
     </row>
     <row r="340">
@@ -10287,13 +10287,13 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16463.10427286154</v>
+        <v>101459.0929757634</v>
       </c>
       <c r="F340" t="n">
-        <v>12347.32820464615</v>
+        <v>76094.31973182254</v>
       </c>
       <c r="G340" t="n">
-        <v>20578.88034107692</v>
+        <v>126823.8662197043</v>
       </c>
     </row>
     <row r="341">
@@ -10316,13 +10316,13 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10371.75569190277</v>
+        <v>63919.22857473095</v>
       </c>
       <c r="F341" t="n">
-        <v>7778.816768927077</v>
+        <v>47939.42143104821</v>
       </c>
       <c r="G341" t="n">
-        <v>12964.69461487846</v>
+        <v>79899.03571841367</v>
       </c>
     </row>
     <row r="342">
@@ -10345,13 +10345,13 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>8725.445264616616</v>
+        <v>53773.31927715459</v>
       </c>
       <c r="F342" t="n">
-        <v>6544.083948462461</v>
+        <v>40329.98945786595</v>
       </c>
       <c r="G342" t="n">
-        <v>10906.80658077077</v>
+        <v>67216.64909644325</v>
       </c>
     </row>
     <row r="343">
@@ -10374,13 +10374,13 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5871.840523987282</v>
+        <v>36187.07649468895</v>
       </c>
       <c r="F343" t="n">
-        <v>4403.880392990462</v>
+        <v>27140.30737101671</v>
       </c>
       <c r="G343" t="n">
-        <v>7339.800654984102</v>
+        <v>45233.84561836118</v>
       </c>
     </row>
     <row r="344">
@@ -10403,13 +10403,13 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>49396.7337886895</v>
+        <v>234385.4703156747</v>
       </c>
       <c r="F344" t="n">
-        <v>37047.55034151713</v>
+        <v>175789.102736756</v>
       </c>
       <c r="G344" t="n">
-        <v>61745.91723586187</v>
+        <v>292981.8378945934</v>
       </c>
     </row>
     <row r="345">
@@ -10432,13 +10432,13 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30516.20442945707</v>
+        <v>144798.1349950168</v>
       </c>
       <c r="F345" t="n">
-        <v>22887.1533220928</v>
+        <v>108598.6012462626</v>
       </c>
       <c r="G345" t="n">
-        <v>38145.25553682134</v>
+        <v>180997.668743771</v>
       </c>
     </row>
     <row r="346">
@@ -10461,13 +10461,13 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16465.57792956317</v>
+        <v>78128.49010522492</v>
       </c>
       <c r="F346" t="n">
-        <v>12349.18344717237</v>
+        <v>58596.36757891867</v>
       </c>
       <c r="G346" t="n">
-        <v>20581.97241195396</v>
+        <v>97660.61263153113</v>
       </c>
     </row>
     <row r="347">
@@ -10490,13 +10490,13 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10373.3140956248</v>
+        <v>49220.94876629169</v>
       </c>
       <c r="F347" t="n">
-        <v>7779.985571718596</v>
+        <v>36915.71157471877</v>
       </c>
       <c r="G347" t="n">
-        <v>12966.64261953099</v>
+        <v>61526.18595786462</v>
       </c>
     </row>
     <row r="348">
@@ -10519,13 +10519,13 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>8726.756302668478</v>
+        <v>41408.0997557692</v>
       </c>
       <c r="F348" t="n">
-        <v>6545.067227001358</v>
+        <v>31056.0748168269</v>
       </c>
       <c r="G348" t="n">
-        <v>10908.4453783356</v>
+        <v>51760.1246947115</v>
       </c>
     </row>
     <row r="349">
@@ -10548,13 +10548,13 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>5872.72279487753</v>
+        <v>27865.82813753022</v>
       </c>
       <c r="F349" t="n">
-        <v>4404.542096158148</v>
+        <v>20899.37110314766</v>
       </c>
       <c r="G349" t="n">
-        <v>7340.903493596911</v>
+        <v>34832.28517191276</v>
       </c>
     </row>
     <row r="350">
@@ -10577,13 +10577,13 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49395.07981485825</v>
+        <v>158788.3184719437</v>
       </c>
       <c r="F350" t="n">
-        <v>37046.30986114369</v>
+        <v>119091.2388539578</v>
       </c>
       <c r="G350" t="n">
-        <v>61743.84976857282</v>
+        <v>198485.3980899296</v>
       </c>
     </row>
     <row r="351">
@@ -10606,13 +10606,13 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30515.1826411791</v>
+        <v>98095.89452266744</v>
       </c>
       <c r="F351" t="n">
-        <v>22886.38698088433</v>
+        <v>73571.92089200058</v>
       </c>
       <c r="G351" t="n">
-        <v>38143.97830147388</v>
+        <v>122619.8681533343</v>
       </c>
     </row>
     <row r="352">
@@ -10635,13 +10635,13 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16465.02660495275</v>
+        <v>52929.4394906479</v>
       </c>
       <c r="F352" t="n">
-        <v>12348.76995371456</v>
+        <v>39697.07961798592</v>
       </c>
       <c r="G352" t="n">
-        <v>20581.28325619094</v>
+        <v>66161.79936330988</v>
       </c>
     </row>
     <row r="353">
@@ -10664,13 +10664,13 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10372.96676112023</v>
+        <v>33345.54687910818</v>
       </c>
       <c r="F353" t="n">
-        <v>7779.725070840176</v>
+        <v>25009.16015933114</v>
       </c>
       <c r="G353" t="n">
-        <v>12966.20845140029</v>
+        <v>41681.93359888522</v>
       </c>
     </row>
     <row r="354">
@@ -10693,13 +10693,13 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8726.464100624959</v>
+        <v>28052.60293004339</v>
       </c>
       <c r="F354" t="n">
-        <v>6544.848075468719</v>
+        <v>21039.45219753254</v>
       </c>
       <c r="G354" t="n">
-        <v>10908.0801257812</v>
+        <v>35065.75366255423</v>
       </c>
     </row>
     <row r="355">
@@ -10722,13 +10722,13 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5872.526155766482</v>
+        <v>18878.16675166442</v>
       </c>
       <c r="F355" t="n">
-        <v>4404.394616824862</v>
+        <v>14158.62506374831</v>
       </c>
       <c r="G355" t="n">
-        <v>7340.657694708102</v>
+        <v>23597.70843958052</v>
       </c>
     </row>
     <row r="356">
@@ -10751,13 +10751,13 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>49396.52025061573</v>
+        <v>108343.7638503948</v>
       </c>
       <c r="F356" t="n">
-        <v>37047.3901879618</v>
+        <v>81257.82288779609</v>
       </c>
       <c r="G356" t="n">
-        <v>61745.65031326967</v>
+        <v>135429.7048129935</v>
       </c>
     </row>
     <row r="357">
@@ -10780,13 +10780,13 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30516.07251038039</v>
+        <v>66932.36966757722</v>
       </c>
       <c r="F357" t="n">
-        <v>22887.05438278529</v>
+        <v>50199.27725068292</v>
       </c>
       <c r="G357" t="n">
-        <v>38145.09063797548</v>
+        <v>83665.46208447154</v>
       </c>
     </row>
     <row r="358">
@@ -10809,13 +10809,13 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16465.50675020524</v>
+        <v>36114.5879501316</v>
       </c>
       <c r="F358" t="n">
-        <v>12349.13006265393</v>
+        <v>27085.9409625987</v>
       </c>
       <c r="G358" t="n">
-        <v>20581.88343775655</v>
+        <v>45143.2349376645</v>
       </c>
     </row>
     <row r="359">
@@ -10838,13 +10838,13 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10373.2692526293</v>
+        <v>22752.19040858291</v>
       </c>
       <c r="F359" t="n">
-        <v>7779.951939471977</v>
+        <v>17064.14280643718</v>
       </c>
       <c r="G359" t="n">
-        <v>12966.58656578663</v>
+        <v>28440.23801072863</v>
       </c>
     </row>
     <row r="360">
@@ -10867,13 +10867,13 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>8726.718577608779</v>
+        <v>19140.73161356974</v>
       </c>
       <c r="F360" t="n">
-        <v>6545.038933206584</v>
+        <v>14355.54871017731</v>
       </c>
       <c r="G360" t="n">
-        <v>10908.39822201097</v>
+        <v>23925.91451696218</v>
       </c>
     </row>
     <row r="361">
@@ -10896,13 +10896,13 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5872.697407573202</v>
+        <v>12880.8697022136</v>
       </c>
       <c r="F361" t="n">
-        <v>4404.523055679903</v>
+        <v>9660.652276660203</v>
       </c>
       <c r="G361" t="n">
-        <v>7340.871759466504</v>
+        <v>16101.087127767</v>
       </c>
     </row>
     <row r="362">
@@ -10925,13 +10925,13 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>49391.4832885759</v>
+        <v>87635.16962524856</v>
       </c>
       <c r="F362" t="n">
-        <v>37043.61246643192</v>
+        <v>65726.37721893642</v>
       </c>
       <c r="G362" t="n">
-        <v>61739.35411071987</v>
+        <v>109543.9620315607</v>
       </c>
     </row>
     <row r="363">
@@ -10954,13 +10954,13 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30512.96078716466</v>
+        <v>54139.06034626466</v>
       </c>
       <c r="F363" t="n">
-        <v>22884.7205903735</v>
+        <v>40604.29525969849</v>
       </c>
       <c r="G363" t="n">
-        <v>38141.20098395584</v>
+        <v>67673.82543283084</v>
       </c>
     </row>
     <row r="364">
@@ -10983,13 +10983,13 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16463.82776285863</v>
+        <v>29211.72320841618</v>
       </c>
       <c r="F364" t="n">
-        <v>12347.87082214397</v>
+        <v>21908.79240631214</v>
       </c>
       <c r="G364" t="n">
-        <v>20579.78470357329</v>
+        <v>36514.65401052023</v>
       </c>
     </row>
     <row r="365">
@@ -11012,13 +11012,13 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10372.21149060094</v>
+        <v>18403.3856213022</v>
       </c>
       <c r="F365" t="n">
-        <v>7779.158617950704</v>
+        <v>13802.53921597665</v>
       </c>
       <c r="G365" t="n">
-        <v>12965.26436325117</v>
+        <v>23004.23202662775</v>
       </c>
     </row>
     <row r="366">
@@ -11041,13 +11041,13 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8725.828714315076</v>
+        <v>15482.21330046058</v>
       </c>
       <c r="F366" t="n">
-        <v>6544.371535736307</v>
+        <v>11611.65997534543</v>
       </c>
       <c r="G366" t="n">
-        <v>10907.28589289384</v>
+        <v>19352.76662557572</v>
       </c>
     </row>
     <row r="367">
@@ -11070,13 +11070,13 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>5872.098568752912</v>
+        <v>10418.84794433511</v>
       </c>
       <c r="F367" t="n">
-        <v>4404.073926564684</v>
+        <v>7814.13595825133</v>
       </c>
       <c r="G367" t="n">
-        <v>7340.12321094114</v>
+        <v>13023.55993041888</v>
       </c>
     </row>
     <row r="368">
@@ -11099,13 +11099,13 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>46655.21834783145</v>
+        <v>257322.4585785999</v>
       </c>
       <c r="F368" t="n">
-        <v>34991.41376087359</v>
+        <v>192991.8439339499</v>
       </c>
       <c r="G368" t="n">
-        <v>58319.02293478932</v>
+        <v>321653.07322325</v>
       </c>
     </row>
     <row r="369">
@@ -11128,13 +11128,13 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28822.55711266032</v>
+        <v>158968.0966330018</v>
       </c>
       <c r="F369" t="n">
-        <v>21616.91783449524</v>
+        <v>119226.0724747513</v>
       </c>
       <c r="G369" t="n">
-        <v>36028.1963908254</v>
+        <v>198710.1207912522</v>
       </c>
     </row>
     <row r="370">
@@ -11157,13 +11157,13 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15551.73944927715</v>
+        <v>85774.15285953334</v>
       </c>
       <c r="F370" t="n">
-        <v>11663.80458695786</v>
+        <v>64330.61464464998</v>
       </c>
       <c r="G370" t="n">
-        <v>19439.67431159644</v>
+        <v>107217.6910744167</v>
       </c>
     </row>
     <row r="371">
@@ -11186,13 +11186,13 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>9797.595853044606</v>
+        <v>54037.716301506</v>
       </c>
       <c r="F371" t="n">
-        <v>7348.196889783454</v>
+        <v>40528.2872261295</v>
       </c>
       <c r="G371" t="n">
-        <v>12246.99481630576</v>
+        <v>67547.14537688249</v>
       </c>
     </row>
     <row r="372">
@@ -11215,13 +11215,13 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>8242.42190811689</v>
+        <v>45460.30101555266</v>
       </c>
       <c r="F372" t="n">
-        <v>6181.816431087668</v>
+        <v>34095.22576166449</v>
       </c>
       <c r="G372" t="n">
-        <v>10303.02738514611</v>
+        <v>56825.37626944082</v>
       </c>
     </row>
     <row r="373">
@@ -11244,13 +11244,13 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>5546.787070242184</v>
+        <v>30592.78118656688</v>
       </c>
       <c r="F373" t="n">
-        <v>4160.090302681639</v>
+        <v>22944.58588992517</v>
       </c>
       <c r="G373" t="n">
-        <v>6933.483837802731</v>
+        <v>38240.9764832086</v>
       </c>
     </row>
     <row r="374">
@@ -11273,13 +11273,13 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>43488.88748907444</v>
+        <v>111456.163277253</v>
       </c>
       <c r="F374" t="n">
-        <v>32616.66561680584</v>
+        <v>83592.12245793978</v>
       </c>
       <c r="G374" t="n">
-        <v>54361.10936134306</v>
+        <v>139320.2040965663</v>
       </c>
     </row>
     <row r="375">
@@ -11302,13 +11302,13 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26866.46827102821</v>
+        <v>68855.14086905855</v>
       </c>
       <c r="F375" t="n">
-        <v>20149.85120327116</v>
+        <v>51641.35565179391</v>
       </c>
       <c r="G375" t="n">
-        <v>33583.08533878527</v>
+        <v>86068.92608632318</v>
       </c>
     </row>
     <row r="376">
@@ -11331,13 +11331,13 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>14496.29582969148</v>
+        <v>37152.05442575102</v>
       </c>
       <c r="F376" t="n">
-        <v>10872.22187226861</v>
+        <v>27864.04081931326</v>
       </c>
       <c r="G376" t="n">
-        <v>18120.36978711435</v>
+        <v>46440.06803218877</v>
       </c>
     </row>
     <row r="377">
@@ -11360,13 +11360,13 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9132.666372705635</v>
+        <v>23405.79428822314</v>
       </c>
       <c r="F377" t="n">
-        <v>6849.499779529226</v>
+        <v>17554.34571616735</v>
       </c>
       <c r="G377" t="n">
-        <v>11415.83296588204</v>
+        <v>29257.24286027892</v>
       </c>
     </row>
     <row r="378">
@@ -11389,13 +11389,13 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>7683.036789736487</v>
+        <v>19690.58884564804</v>
       </c>
       <c r="F378" t="n">
-        <v>5762.277592302365</v>
+        <v>14767.94163423603</v>
       </c>
       <c r="G378" t="n">
-        <v>9603.795987170606</v>
+        <v>24613.23605706005</v>
       </c>
     </row>
     <row r="379">
@@ -11418,13 +11418,13 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5170.345512589963</v>
+        <v>13250.8994118512</v>
       </c>
       <c r="F379" t="n">
-        <v>3877.759134442472</v>
+        <v>9938.174558888397</v>
       </c>
       <c r="G379" t="n">
-        <v>6462.931890737453</v>
+        <v>16563.62426481399</v>
       </c>
     </row>
     <row r="380">
@@ -11447,13 +11447,13 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>49389.31281858461</v>
+        <v>304377.2789272902</v>
       </c>
       <c r="F380" t="n">
-        <v>37041.98461393846</v>
+        <v>228282.9591954676</v>
       </c>
       <c r="G380" t="n">
-        <v>61736.64102323077</v>
+        <v>380471.5986591128</v>
       </c>
     </row>
     <row r="381">
@@ -11476,13 +11476,13 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30511.61991903672</v>
+        <v>188037.5189817482</v>
       </c>
       <c r="F381" t="n">
-        <v>22883.71493927754</v>
+        <v>141028.1392363111</v>
       </c>
       <c r="G381" t="n">
-        <v>38139.5248987959</v>
+        <v>235046.8987271852</v>
       </c>
     </row>
     <row r="382">
@@ -11505,13 +11505,13 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16463.10427286154</v>
+        <v>101459.0929757634</v>
       </c>
       <c r="F382" t="n">
-        <v>12347.32820464615</v>
+        <v>76094.31973182254</v>
       </c>
       <c r="G382" t="n">
-        <v>20578.88034107692</v>
+        <v>126823.8662197043</v>
       </c>
     </row>
     <row r="383">
@@ -11534,13 +11534,13 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10371.75569190277</v>
+        <v>63919.22857473095</v>
       </c>
       <c r="F383" t="n">
-        <v>7778.816768927077</v>
+        <v>47939.42143104821</v>
       </c>
       <c r="G383" t="n">
-        <v>12964.69461487846</v>
+        <v>79899.03571841367</v>
       </c>
     </row>
     <row r="384">
@@ -11563,13 +11563,13 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>8725.445264616616</v>
+        <v>53773.31927715459</v>
       </c>
       <c r="F384" t="n">
-        <v>6544.083948462461</v>
+        <v>40329.98945786595</v>
       </c>
       <c r="G384" t="n">
-        <v>10906.80658077077</v>
+        <v>67216.64909644325</v>
       </c>
     </row>
     <row r="385">
@@ -11592,13 +11592,13 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5871.840523987282</v>
+        <v>36187.07649468895</v>
       </c>
       <c r="F385" t="n">
-        <v>4403.880392990462</v>
+        <v>27140.30737101671</v>
       </c>
       <c r="G385" t="n">
-        <v>7339.800654984102</v>
+        <v>45233.84561836118</v>
       </c>
     </row>
     <row r="386">
@@ -11621,13 +11621,13 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49396.7337886895</v>
+        <v>234385.4703156747</v>
       </c>
       <c r="F386" t="n">
-        <v>37047.55034151713</v>
+        <v>175789.102736756</v>
       </c>
       <c r="G386" t="n">
-        <v>61745.91723586187</v>
+        <v>292981.8378945934</v>
       </c>
     </row>
     <row r="387">
@@ -11650,13 +11650,13 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30516.20442945707</v>
+        <v>144798.1349950168</v>
       </c>
       <c r="F387" t="n">
-        <v>22887.1533220928</v>
+        <v>108598.6012462626</v>
       </c>
       <c r="G387" t="n">
-        <v>38145.25553682134</v>
+        <v>180997.668743771</v>
       </c>
     </row>
     <row r="388">
@@ -11679,13 +11679,13 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16465.57792956317</v>
+        <v>78128.49010522492</v>
       </c>
       <c r="F388" t="n">
-        <v>12349.18344717237</v>
+        <v>58596.36757891867</v>
       </c>
       <c r="G388" t="n">
-        <v>20581.97241195396</v>
+        <v>97660.61263153113</v>
       </c>
     </row>
     <row r="389">
@@ -11708,13 +11708,13 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10373.3140956248</v>
+        <v>49220.94876629169</v>
       </c>
       <c r="F389" t="n">
-        <v>7779.985571718596</v>
+        <v>36915.71157471877</v>
       </c>
       <c r="G389" t="n">
-        <v>12966.64261953099</v>
+        <v>61526.18595786462</v>
       </c>
     </row>
     <row r="390">
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>8726.756302668478</v>
+        <v>41408.0997557692</v>
       </c>
       <c r="F390" t="n">
-        <v>6545.067227001358</v>
+        <v>31056.0748168269</v>
       </c>
       <c r="G390" t="n">
-        <v>10908.4453783356</v>
+        <v>51760.1246947115</v>
       </c>
     </row>
     <row r="391">
@@ -11766,13 +11766,13 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5872.72279487753</v>
+        <v>27865.82813753022</v>
       </c>
       <c r="F391" t="n">
-        <v>4404.542096158148</v>
+        <v>20899.37110314766</v>
       </c>
       <c r="G391" t="n">
-        <v>7340.903493596911</v>
+        <v>34832.28517191276</v>
       </c>
     </row>
     <row r="392">
@@ -11795,13 +11795,13 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49395.07981485825</v>
+        <v>158788.3184719437</v>
       </c>
       <c r="F392" t="n">
-        <v>37046.30986114369</v>
+        <v>119091.2388539578</v>
       </c>
       <c r="G392" t="n">
-        <v>61743.84976857282</v>
+        <v>198485.3980899296</v>
       </c>
     </row>
     <row r="393">
@@ -11824,13 +11824,13 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30515.1826411791</v>
+        <v>98095.89452266744</v>
       </c>
       <c r="F393" t="n">
-        <v>22886.38698088433</v>
+        <v>73571.92089200058</v>
       </c>
       <c r="G393" t="n">
-        <v>38143.97830147388</v>
+        <v>122619.8681533343</v>
       </c>
     </row>
     <row r="394">
@@ -11853,13 +11853,13 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16465.02660495275</v>
+        <v>52929.4394906479</v>
       </c>
       <c r="F394" t="n">
-        <v>12348.76995371456</v>
+        <v>39697.07961798592</v>
       </c>
       <c r="G394" t="n">
-        <v>20581.28325619094</v>
+        <v>66161.79936330988</v>
       </c>
     </row>
     <row r="395">
@@ -11882,13 +11882,13 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10372.96676112023</v>
+        <v>33345.54687910818</v>
       </c>
       <c r="F395" t="n">
-        <v>7779.725070840176</v>
+        <v>25009.16015933114</v>
       </c>
       <c r="G395" t="n">
-        <v>12966.20845140029</v>
+        <v>41681.93359888522</v>
       </c>
     </row>
     <row r="396">
@@ -11911,13 +11911,13 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>8726.464100624959</v>
+        <v>28052.60293004339</v>
       </c>
       <c r="F396" t="n">
-        <v>6544.848075468719</v>
+        <v>21039.45219753254</v>
       </c>
       <c r="G396" t="n">
-        <v>10908.0801257812</v>
+        <v>35065.75366255423</v>
       </c>
     </row>
     <row r="397">
@@ -11940,13 +11940,13 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>5872.526155766482</v>
+        <v>18878.16675166442</v>
       </c>
       <c r="F397" t="n">
-        <v>4404.394616824862</v>
+        <v>14158.62506374831</v>
       </c>
       <c r="G397" t="n">
-        <v>7340.657694708102</v>
+        <v>23597.70843958052</v>
       </c>
     </row>
     <row r="398">
@@ -11969,13 +11969,13 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49396.52025061573</v>
+        <v>108343.7638503948</v>
       </c>
       <c r="F398" t="n">
-        <v>37047.3901879618</v>
+        <v>81257.82288779609</v>
       </c>
       <c r="G398" t="n">
-        <v>61745.65031326967</v>
+        <v>135429.7048129935</v>
       </c>
     </row>
     <row r="399">
@@ -11998,13 +11998,13 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30516.07251038039</v>
+        <v>66932.36966757722</v>
       </c>
       <c r="F399" t="n">
-        <v>22887.05438278529</v>
+        <v>50199.27725068292</v>
       </c>
       <c r="G399" t="n">
-        <v>38145.09063797548</v>
+        <v>83665.46208447154</v>
       </c>
     </row>
     <row r="400">
@@ -12027,13 +12027,13 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16465.50675020524</v>
+        <v>36114.5879501316</v>
       </c>
       <c r="F400" t="n">
-        <v>12349.13006265393</v>
+        <v>27085.9409625987</v>
       </c>
       <c r="G400" t="n">
-        <v>20581.88343775655</v>
+        <v>45143.2349376645</v>
       </c>
     </row>
     <row r="401">
@@ -12056,13 +12056,13 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>10373.2692526293</v>
+        <v>22752.19040858291</v>
       </c>
       <c r="F401" t="n">
-        <v>7779.951939471977</v>
+        <v>17064.14280643718</v>
       </c>
       <c r="G401" t="n">
-        <v>12966.58656578663</v>
+        <v>28440.23801072863</v>
       </c>
     </row>
     <row r="402">
@@ -12085,13 +12085,13 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>8726.718577608779</v>
+        <v>19140.73161356974</v>
       </c>
       <c r="F402" t="n">
-        <v>6545.038933206584</v>
+        <v>14355.54871017731</v>
       </c>
       <c r="G402" t="n">
-        <v>10908.39822201097</v>
+        <v>23925.91451696218</v>
       </c>
     </row>
     <row r="403">
@@ -12114,13 +12114,13 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5872.697407573202</v>
+        <v>12880.8697022136</v>
       </c>
       <c r="F403" t="n">
-        <v>4404.523055679903</v>
+        <v>9660.652276660203</v>
       </c>
       <c r="G403" t="n">
-        <v>7340.871759466504</v>
+        <v>16101.087127767</v>
       </c>
     </row>
     <row r="404">
@@ -12143,13 +12143,13 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>49391.4832885759</v>
+        <v>87635.16962524856</v>
       </c>
       <c r="F404" t="n">
-        <v>37043.61246643192</v>
+        <v>65726.37721893642</v>
       </c>
       <c r="G404" t="n">
-        <v>61739.35411071987</v>
+        <v>109543.9620315607</v>
       </c>
     </row>
     <row r="405">
@@ -12172,13 +12172,13 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30512.96078716466</v>
+        <v>54139.06034626466</v>
       </c>
       <c r="F405" t="n">
-        <v>22884.7205903735</v>
+        <v>40604.29525969849</v>
       </c>
       <c r="G405" t="n">
-        <v>38141.20098395584</v>
+        <v>67673.82543283084</v>
       </c>
     </row>
     <row r="406">
@@ -12201,13 +12201,13 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16463.82776285863</v>
+        <v>29211.72320841618</v>
       </c>
       <c r="F406" t="n">
-        <v>12347.87082214397</v>
+        <v>21908.79240631214</v>
       </c>
       <c r="G406" t="n">
-        <v>20579.78470357329</v>
+        <v>36514.65401052023</v>
       </c>
     </row>
     <row r="407">
@@ -12230,13 +12230,13 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10372.21149060094</v>
+        <v>18403.3856213022</v>
       </c>
       <c r="F407" t="n">
-        <v>7779.158617950704</v>
+        <v>13802.53921597665</v>
       </c>
       <c r="G407" t="n">
-        <v>12965.26436325117</v>
+        <v>23004.23202662775</v>
       </c>
     </row>
     <row r="408">
@@ -12259,13 +12259,13 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8725.828714315076</v>
+        <v>15482.21330046058</v>
       </c>
       <c r="F408" t="n">
-        <v>6544.371535736307</v>
+        <v>11611.65997534543</v>
       </c>
       <c r="G408" t="n">
-        <v>10907.28589289384</v>
+        <v>19352.76662557572</v>
       </c>
     </row>
     <row r="409">
@@ -12288,13 +12288,13 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5872.098568752912</v>
+        <v>10418.84794433511</v>
       </c>
       <c r="F409" t="n">
-        <v>4404.073926564684</v>
+        <v>7814.13595825133</v>
       </c>
       <c r="G409" t="n">
-        <v>7340.12321094114</v>
+        <v>13023.55993041888</v>
       </c>
     </row>
     <row r="410">
@@ -12317,13 +12317,13 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46655.21834783145</v>
+        <v>257322.4585785999</v>
       </c>
       <c r="F410" t="n">
-        <v>34991.41376087359</v>
+        <v>192991.8439339499</v>
       </c>
       <c r="G410" t="n">
-        <v>58319.02293478932</v>
+        <v>321653.07322325</v>
       </c>
     </row>
     <row r="411">
@@ -12346,13 +12346,13 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28822.55711266032</v>
+        <v>158968.0966330018</v>
       </c>
       <c r="F411" t="n">
-        <v>21616.91783449524</v>
+        <v>119226.0724747513</v>
       </c>
       <c r="G411" t="n">
-        <v>36028.1963908254</v>
+        <v>198710.1207912522</v>
       </c>
     </row>
     <row r="412">
@@ -12375,13 +12375,13 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15551.73944927715</v>
+        <v>85774.15285953334</v>
       </c>
       <c r="F412" t="n">
-        <v>11663.80458695786</v>
+        <v>64330.61464464998</v>
       </c>
       <c r="G412" t="n">
-        <v>19439.67431159644</v>
+        <v>107217.6910744167</v>
       </c>
     </row>
     <row r="413">
@@ -12404,13 +12404,13 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9797.595853044606</v>
+        <v>54037.716301506</v>
       </c>
       <c r="F413" t="n">
-        <v>7348.196889783454</v>
+        <v>40528.2872261295</v>
       </c>
       <c r="G413" t="n">
-        <v>12246.99481630576</v>
+        <v>67547.14537688249</v>
       </c>
     </row>
     <row r="414">
@@ -12433,13 +12433,13 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>8242.42190811689</v>
+        <v>45460.30101555266</v>
       </c>
       <c r="F414" t="n">
-        <v>6181.816431087668</v>
+        <v>34095.22576166449</v>
       </c>
       <c r="G414" t="n">
-        <v>10303.02738514611</v>
+        <v>56825.37626944082</v>
       </c>
     </row>
     <row r="415">
@@ -12462,13 +12462,13 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>5546.787070242184</v>
+        <v>30592.78118656688</v>
       </c>
       <c r="F415" t="n">
-        <v>4160.090302681639</v>
+        <v>22944.58588992517</v>
       </c>
       <c r="G415" t="n">
-        <v>6933.483837802731</v>
+        <v>38240.9764832086</v>
       </c>
     </row>
     <row r="416">
@@ -12491,13 +12491,13 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>43488.88748907444</v>
+        <v>111456.163277253</v>
       </c>
       <c r="F416" t="n">
-        <v>32616.66561680584</v>
+        <v>83592.12245793978</v>
       </c>
       <c r="G416" t="n">
-        <v>54361.10936134306</v>
+        <v>139320.2040965663</v>
       </c>
     </row>
     <row r="417">
@@ -12520,13 +12520,13 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26866.46827102821</v>
+        <v>68855.14086905855</v>
       </c>
       <c r="F417" t="n">
-        <v>20149.85120327116</v>
+        <v>51641.35565179391</v>
       </c>
       <c r="G417" t="n">
-        <v>33583.08533878527</v>
+        <v>86068.92608632318</v>
       </c>
     </row>
     <row r="418">
@@ -12549,13 +12549,13 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14496.29582969148</v>
+        <v>37152.05442575102</v>
       </c>
       <c r="F418" t="n">
-        <v>10872.22187226861</v>
+        <v>27864.04081931326</v>
       </c>
       <c r="G418" t="n">
-        <v>18120.36978711435</v>
+        <v>46440.06803218877</v>
       </c>
     </row>
     <row r="419">
@@ -12578,13 +12578,13 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>9132.666372705635</v>
+        <v>23405.79428822314</v>
       </c>
       <c r="F419" t="n">
-        <v>6849.499779529226</v>
+        <v>17554.34571616735</v>
       </c>
       <c r="G419" t="n">
-        <v>11415.83296588204</v>
+        <v>29257.24286027892</v>
       </c>
     </row>
     <row r="420">
@@ -12607,13 +12607,13 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>7683.036789736487</v>
+        <v>19690.58884564804</v>
       </c>
       <c r="F420" t="n">
-        <v>5762.277592302365</v>
+        <v>14767.94163423603</v>
       </c>
       <c r="G420" t="n">
-        <v>9603.795987170606</v>
+        <v>24613.23605706005</v>
       </c>
     </row>
     <row r="421">
@@ -12636,13 +12636,13 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>5170.345512589963</v>
+        <v>13250.8994118512</v>
       </c>
       <c r="F421" t="n">
-        <v>3877.759134442472</v>
+        <v>9938.174558888397</v>
       </c>
       <c r="G421" t="n">
-        <v>6462.931890737453</v>
+        <v>16563.62426481399</v>
       </c>
     </row>
   </sheetData>
